--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="206">
   <si>
     <t>Fluxo de Créditos Imobiliários</t>
   </si>
@@ -812,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,6 +836,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1243,7 +1245,7 @@
     <col min="18" max="18" width="12.7109375" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
     <col min="22" max="22" width="4.7109375" customWidth="1"/>
     <col min="23" max="23" width="6.7109375" customWidth="1"/>
     <col min="24" max="24" width="8.7109375" customWidth="1"/>
@@ -1284,14 +1286,14 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="5"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="4"/>
@@ -1310,14 +1312,8 @@
       <c r="L5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="5"/>
+      <c r="N5" s="9"/>
+      <c r="U5" s="10"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="4"/>
@@ -1336,41 +1332,40 @@
       <c r="L6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="9" t="s">
+      <c r="N6" s="9"/>
+      <c r="P6" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="12" t="s">
         <v>204</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Z6" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AC6" s="12" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1384,14 +1379,8 @@
       <c r="L7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="5"/>
+      <c r="N7" s="9"/>
+      <c r="U7" s="10"/>
       <c r="W7" s="2"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="4"/>
@@ -1419,11 +1408,7 @@
       <c r="P8" s="4">
         <v>2854000</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="5"/>
+      <c r="U8" s="10"/>
       <c r="W8" s="2">
         <v>1</v>
       </c>
@@ -1625,22 +1610,22 @@
       </c>
     </row>
     <row r="12" spans="2:29" ht="18" customHeight="1">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="13" t="s">
         <v>180</v>
       </c>
       <c r="J12" s="6">
@@ -1709,22 +1694,22 @@
       </c>
     </row>
     <row r="13" spans="2:29" ht="18" customHeight="1">
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>0.105</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="15">
         <v>14270000</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="15">
         <v>1000</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="14">
         <v>0.08500000000000001</v>
       </c>
       <c r="J13" s="6">
@@ -1793,16 +1778,16 @@
       </c>
     </row>
     <row r="14" spans="2:29" ht="18" customHeight="1">
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="15">
         <v>1000</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="14">
         <v>0.149295016450141</v>
       </c>
       <c r="J14" s="6">
@@ -2003,25 +1988,25 @@
       </c>
     </row>
     <row r="17" spans="2:29" ht="18" customHeight="1">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="13" t="s">
         <v>195</v>
       </c>
       <c r="J17" s="6">
@@ -2090,27 +2075,27 @@
       </c>
     </row>
     <row r="18" spans="2:29" ht="18" customHeight="1">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="15">
         <v>1000</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="17">
         <f>E18/C18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="15">
         <f>C13*G18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="18">
         <v>0.8</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="18">
         <v>0.92</v>
       </c>
       <c r="J18" s="6">
@@ -2179,24 +2164,24 @@
       </c>
     </row>
     <row r="19" spans="2:29" ht="18" customHeight="1">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="15">
         <v>1000</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="17">
         <f>E19/C19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="15">
         <f>C13*G19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="18">
         <v>0.2</v>
       </c>
       <c r="J19" s="6">
@@ -2397,13 +2382,13 @@
       </c>
     </row>
     <row r="22" spans="2:29" ht="18" customHeight="1">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="13" t="s">
         <v>197</v>
       </c>
       <c r="J22" s="6">
@@ -2472,14 +2457,14 @@
       </c>
     </row>
     <row r="23" spans="2:29" ht="18" customHeight="1">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="19">
         <f>(1+D23)^(1/12)-1</f>
         <v>0</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="14">
         <v>0.08500000000000001</v>
       </c>
       <c r="J23" s="6">
@@ -2548,14 +2533,14 @@
       </c>
     </row>
     <row r="24" spans="2:29" ht="18" customHeight="1">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="19">
         <f>(1+D24)^(1/12)-1</f>
         <v>0</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="14">
         <v>0.149295016450141</v>
       </c>
       <c r="J24" s="6">
@@ -10252,29 +10237,29 @@
         <f>S140/P139</f>
         <v>0</v>
       </c>
-      <c r="W140" s="18">
+      <c r="W140" s="20">
         <v>133</v>
       </c>
-      <c r="X140" s="19" t="s">
+      <c r="X140" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="Y140" s="20">
+      <c r="Y140" s="22">
         <f>Y139+Z140-AB140</f>
         <v>0</v>
       </c>
-      <c r="Z140" s="20">
+      <c r="Z140" s="22">
         <f>Y139*C23</f>
         <v>0</v>
       </c>
-      <c r="AA140" s="20">
+      <c r="AA140" s="22">
         <f>Y139</f>
         <v>0</v>
       </c>
-      <c r="AB140" s="20">
+      <c r="AB140" s="22">
         <f>Z140+AA140</f>
         <v>0</v>
       </c>
-      <c r="AC140" s="21">
+      <c r="AC140" s="23">
         <f>AA140/Y139</f>
         <v>0</v>
       </c>
@@ -11289,32 +11274,32 @@
       <c r="L166" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="N166" s="18">
+      <c r="N166" s="2">
         <v>159</v>
       </c>
-      <c r="O166" s="19" t="s">
+      <c r="O166" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="P166" s="20">
+      <c r="P166" s="4">
         <f>P165+Q166+R166-T166</f>
         <v>0</v>
       </c>
-      <c r="Q166" s="20">
-        <v>10000</v>
-      </c>
-      <c r="R166" s="20">
+      <c r="Q166" s="4">
+        <v>10000</v>
+      </c>
+      <c r="R166" s="4">
         <f>P165*C24</f>
         <v>0</v>
       </c>
-      <c r="S166" s="20">
+      <c r="S166" s="4">
         <f>T166-R166-Q166</f>
         <v>0</v>
       </c>
-      <c r="T166" s="20">
+      <c r="T166" s="4">
         <f>K162*H18</f>
         <v>0</v>
       </c>
-      <c r="U166" s="21">
+      <c r="U166" s="5">
         <f>S166/P165</f>
         <v>0</v>
       </c>
@@ -11329,6 +11314,35 @@
       <c r="L167" s="8" t="s">
         <v>163</v>
       </c>
+      <c r="N167" s="2">
+        <v>160</v>
+      </c>
+      <c r="O167" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P167" s="4">
+        <f>P166+Q167+R167-T167</f>
+        <v>0</v>
+      </c>
+      <c r="Q167" s="4">
+        <v>10000</v>
+      </c>
+      <c r="R167" s="4">
+        <f>P166*C24</f>
+        <v>0</v>
+      </c>
+      <c r="S167" s="4">
+        <f>T167-R167-Q167</f>
+        <v>0</v>
+      </c>
+      <c r="T167" s="4">
+        <f>K163*H18</f>
+        <v>0</v>
+      </c>
+      <c r="U167" s="5">
+        <f>S167/P166</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="10:21" ht="18" customHeight="1">
       <c r="J168" s="6">
@@ -11340,6 +11354,35 @@
       <c r="L168" s="8" t="s">
         <v>164</v>
       </c>
+      <c r="N168" s="2">
+        <v>161</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P168" s="4">
+        <f>P167+Q168+R168-T168</f>
+        <v>0</v>
+      </c>
+      <c r="Q168" s="4">
+        <v>10000</v>
+      </c>
+      <c r="R168" s="4">
+        <f>P167*C24</f>
+        <v>0</v>
+      </c>
+      <c r="S168" s="4">
+        <f>T168-R168-Q168</f>
+        <v>0</v>
+      </c>
+      <c r="T168" s="4">
+        <f>K164*H18</f>
+        <v>0</v>
+      </c>
+      <c r="U168" s="5">
+        <f>S168/P167</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="10:21" ht="18" customHeight="1">
       <c r="J169" s="6">
@@ -11351,6 +11394,35 @@
       <c r="L169" s="8" t="s">
         <v>165</v>
       </c>
+      <c r="N169" s="2">
+        <v>162</v>
+      </c>
+      <c r="O169" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P169" s="4">
+        <f>P168+Q169+R169-T169</f>
+        <v>0</v>
+      </c>
+      <c r="Q169" s="4">
+        <v>10000</v>
+      </c>
+      <c r="R169" s="4">
+        <f>P168*C24</f>
+        <v>0</v>
+      </c>
+      <c r="S169" s="4">
+        <f>T169-R169-Q169</f>
+        <v>0</v>
+      </c>
+      <c r="T169" s="4">
+        <f>K165*H18</f>
+        <v>0</v>
+      </c>
+      <c r="U169" s="5">
+        <f>S169/P168</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="10:21" ht="18" customHeight="1">
       <c r="J170" s="6">
@@ -11362,6 +11434,35 @@
       <c r="L170" s="8" t="s">
         <v>166</v>
       </c>
+      <c r="N170" s="2">
+        <v>163</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P170" s="4">
+        <f>P169+Q170+R170-T170</f>
+        <v>0</v>
+      </c>
+      <c r="Q170" s="4">
+        <v>10000</v>
+      </c>
+      <c r="R170" s="4">
+        <f>P169*C24</f>
+        <v>0</v>
+      </c>
+      <c r="S170" s="4">
+        <f>T170-R170-Q170</f>
+        <v>0</v>
+      </c>
+      <c r="T170" s="4">
+        <f>K166*H18</f>
+        <v>0</v>
+      </c>
+      <c r="U170" s="5">
+        <f>S170/P169</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="10:21" ht="18" customHeight="1">
       <c r="J171" s="6">
@@ -11373,6 +11474,35 @@
       <c r="L171" s="8" t="s">
         <v>167</v>
       </c>
+      <c r="N171" s="20">
+        <v>164</v>
+      </c>
+      <c r="O171" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="P171" s="22">
+        <f>P170+Q171+R171-T171</f>
+        <v>0</v>
+      </c>
+      <c r="Q171" s="22">
+        <v>10000</v>
+      </c>
+      <c r="R171" s="22">
+        <f>P170*C24</f>
+        <v>0</v>
+      </c>
+      <c r="S171" s="22">
+        <f>P170</f>
+        <v>0</v>
+      </c>
+      <c r="T171" s="22">
+        <f>Q171+R171+S171</f>
+        <v>0</v>
+      </c>
+      <c r="U171" s="23">
+        <f>S171/P170</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="10:21" ht="18" customHeight="1">
       <c r="J172" s="6">
@@ -11496,13 +11626,13 @@
       </c>
     </row>
     <row r="183" spans="10:12" ht="18" customHeight="1">
-      <c r="J183" s="22">
+      <c r="J183" s="24">
         <v>179</v>
       </c>
-      <c r="K183" s="23">
+      <c r="K183" s="25">
         <v>2552.49</v>
       </c>
-      <c r="L183" s="24" t="s">
+      <c r="L183" s="26" t="s">
         <v>179</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="211">
   <si>
     <t>Fluxo de Créditos Imobiliários</t>
   </si>
@@ -604,12 +604,24 @@
     <t>% PMT</t>
   </si>
   <si>
+    <t>Período</t>
+  </si>
+  <si>
     <t>Mensal</t>
   </si>
   <si>
     <t>Anual</t>
   </si>
   <si>
+    <t>TIR</t>
+  </si>
+  <si>
+    <t>FR 3 PMTS</t>
+  </si>
+  <si>
+    <t>FR Previsto</t>
+  </si>
+  <si>
     <t>Tranche Subordinado</t>
   </si>
   <si>
@@ -632,6 +644,9 @@
   </si>
   <si>
     <t>Tranche Sênior</t>
+  </si>
+  <si>
+    <t>Fluxo Financeiro</t>
   </si>
 </sst>
 </file>
@@ -642,6 +657,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* (#,##0.00);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="#,##0_);(#,##0)"/>
@@ -649,6 +665,7 @@
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="8">
@@ -682,6 +699,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -692,12 +715,6 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
-      <name val="arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="arial"/>
       <family val="2"/>
     </font>
@@ -812,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,29 +855,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,6 +891,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1219,7 +1238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:AC183"/>
+  <dimension ref="B3:AG183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1254,16 +1273,20 @@
     <col min="27" max="27" width="12.7109375" customWidth="1"/>
     <col min="28" max="28" width="12.7109375" customWidth="1"/>
     <col min="29" max="29" width="11.7109375" customWidth="1"/>
+    <col min="30" max="30" width="4.7109375" customWidth="1"/>
+    <col min="31" max="31" width="6.7109375" customWidth="1"/>
+    <col min="32" max="32" width="6.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:29">
+    <row r="3" spans="2:33">
       <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1273,7 +1296,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -1281,8 +1304,13 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="2:29">
+      <c r="AE3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="2:33">
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1301,8 +1329,11 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="2:29">
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="2:33">
       <c r="J5" s="6">
         <v>1</v>
       </c>
@@ -1321,8 +1352,17 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="2:29" ht="18" customHeight="1">
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>-14270000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" ht="18" customHeight="1">
       <c r="J6" s="6">
         <v>2</v>
       </c>
@@ -1333,43 +1373,52 @@
         <v>2</v>
       </c>
       <c r="N6" s="9"/>
-      <c r="P6" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="T6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>204</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB6" s="11" t="s">
+      <c r="Y6" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="AC6" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" ht="18" customHeight="1">
+      <c r="Z6" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" ht="18" customHeight="1">
       <c r="J7" s="6">
         <v>3</v>
       </c>
@@ -1388,8 +1437,17 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="5"/>
-    </row>
-    <row r="8" spans="2:29" ht="18" customHeight="1">
+      <c r="AE7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" ht="18" customHeight="1">
       <c r="J8" s="6">
         <v>4</v>
       </c>
@@ -1422,8 +1480,17 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="5"/>
-    </row>
-    <row r="9" spans="2:29" ht="18" customHeight="1">
+      <c r="AE8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" ht="18" customHeight="1">
       <c r="J9" s="6">
         <v>5</v>
       </c>
@@ -1447,7 +1514,7 @@
         <v>10000</v>
       </c>
       <c r="R9" s="4">
-        <f>P8*C24</f>
+        <f>P8*D23</f>
         <v>0</v>
       </c>
       <c r="S9" s="4">
@@ -1484,8 +1551,18 @@
         <f>AA9/Y8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:29" ht="18" customHeight="1">
+      <c r="AE9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="11">
+        <f>R12+S12+Z12+AA12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" ht="18" customHeight="1">
       <c r="J10" s="6">
         <v>6</v>
       </c>
@@ -1509,7 +1586,7 @@
         <v>10000</v>
       </c>
       <c r="R10" s="4">
-        <f>P9*C24</f>
+        <f>P9*D23</f>
         <v>0</v>
       </c>
       <c r="S10" s="4">
@@ -1546,8 +1623,18 @@
         <f>AA10/Y9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:29" ht="18" customHeight="1">
+      <c r="AE10" s="2">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="11">
+        <f>R13+S13+Z13+AA13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" ht="18" customHeight="1">
       <c r="J11" s="6">
         <v>7</v>
       </c>
@@ -1571,7 +1658,7 @@
         <v>10000</v>
       </c>
       <c r="R11" s="4">
-        <f>P10*C24</f>
+        <f>P10*D23</f>
         <v>0</v>
       </c>
       <c r="S11" s="4">
@@ -1608,24 +1695,34 @@
         <f>AA11/Y10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:29" ht="18" customHeight="1">
-      <c r="B12" s="13" t="s">
+      <c r="AE11" s="2">
+        <v>7</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="11">
+        <f>R14+S14+Z14+AA14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" ht="18" customHeight="1">
+      <c r="B12" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>180</v>
       </c>
       <c r="J12" s="6">
@@ -1651,7 +1748,7 @@
         <v>10000</v>
       </c>
       <c r="R12" s="4">
-        <f>P11*C24</f>
+        <f>P11*D23</f>
         <v>0</v>
       </c>
       <c r="S12" s="4">
@@ -1692,24 +1789,34 @@
         <f>AA12/Y11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:29" ht="18" customHeight="1">
-      <c r="B13" s="14">
+      <c r="AE12" s="2">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG12" s="11">
+        <f>R15+S15+Z15+AA15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" ht="18" customHeight="1">
+      <c r="B13" s="15">
         <v>0.105</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="16">
         <v>14270000</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="16">
         <v>1000</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>0.08500000000000001</v>
       </c>
       <c r="J13" s="6">
@@ -1735,7 +1842,7 @@
         <v>10000</v>
       </c>
       <c r="R13" s="4">
-        <f>P12*C24</f>
+        <f>P12*D23</f>
         <v>0</v>
       </c>
       <c r="S13" s="4">
@@ -1776,18 +1883,28 @@
         <f>AA13/Y12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:29" ht="18" customHeight="1">
-      <c r="E14" s="16" t="s">
+      <c r="AE13" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG13" s="11">
+        <f>R16+S16+Z16+AA16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" ht="18" customHeight="1">
+      <c r="E14" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="16">
         <v>1000</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="15">
         <v>0.149295016450141</v>
       </c>
       <c r="J14" s="6">
@@ -1813,7 +1930,7 @@
         <v>10000</v>
       </c>
       <c r="R14" s="4">
-        <f>P13*C24</f>
+        <f>P13*D23</f>
         <v>0</v>
       </c>
       <c r="S14" s="4">
@@ -1854,8 +1971,18 @@
         <f>AA14/Y13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:29" ht="18" customHeight="1">
+      <c r="AE14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="11">
+        <f>R17+S17+Z17+AA17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" ht="18" customHeight="1">
       <c r="J15" s="6">
         <v>11</v>
       </c>
@@ -1879,7 +2006,7 @@
         <v>10000</v>
       </c>
       <c r="R15" s="4">
-        <f>P14*C24</f>
+        <f>P14*D23</f>
         <v>0</v>
       </c>
       <c r="S15" s="4">
@@ -1920,8 +2047,18 @@
         <f>AA15/Y14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:29" ht="18" customHeight="1">
+      <c r="AE15" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG15" s="11">
+        <f>R18+S18+Z18+AA18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" ht="18" customHeight="1">
       <c r="J16" s="6">
         <v>12</v>
       </c>
@@ -1945,7 +2082,7 @@
         <v>10000</v>
       </c>
       <c r="R16" s="4">
-        <f>P15*C24</f>
+        <f>P15*D23</f>
         <v>0</v>
       </c>
       <c r="S16" s="4">
@@ -1986,27 +2123,37 @@
         <f>AA16/Y15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:29" ht="18" customHeight="1">
-      <c r="B17" s="13" t="s">
+      <c r="AE16" s="2">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG16" s="11">
+        <f>R19+S19+Z19+AA19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" ht="18" customHeight="1">
+      <c r="B17" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>195</v>
       </c>
       <c r="J17" s="6">
@@ -2032,7 +2179,7 @@
         <v>10000</v>
       </c>
       <c r="R17" s="4">
-        <f>P16*C24</f>
+        <f>P16*D23</f>
         <v>0</v>
       </c>
       <c r="S17" s="4">
@@ -2073,29 +2220,39 @@
         <f>AA17/Y16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:29" ht="18" customHeight="1">
-      <c r="B18" s="16" t="s">
+      <c r="AE17" s="2">
+        <v>13</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG17" s="11">
+        <f>R20+S20+Z20+AA20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" ht="18" customHeight="1">
+      <c r="B18" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <v>1000</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="18">
         <f>E18/C18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="16">
         <f>C13*G18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>0.8</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="19">
         <v>0.92</v>
       </c>
       <c r="J18" s="6">
@@ -2121,7 +2278,7 @@
         <v>10000</v>
       </c>
       <c r="R18" s="4">
-        <f>P17*C24</f>
+        <f>P17*D23</f>
         <v>0</v>
       </c>
       <c r="S18" s="4">
@@ -2162,26 +2319,36 @@
         <f>AA18/Y17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:29" ht="18" customHeight="1">
-      <c r="B19" s="16" t="s">
+      <c r="AE18" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG18" s="11">
+        <f>R21+S21+Z21+AA21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" ht="18" customHeight="1">
+      <c r="B19" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="16">
         <v>1000</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="18">
         <f>E19/C19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="16">
         <f>C13*G19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>0.2</v>
       </c>
       <c r="J19" s="6">
@@ -2207,7 +2374,7 @@
         <v>10000</v>
       </c>
       <c r="R19" s="4">
-        <f>P18*C24</f>
+        <f>P18*D23</f>
         <v>0</v>
       </c>
       <c r="S19" s="4">
@@ -2248,8 +2415,18 @@
         <f>AA19/Y18</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:29" ht="18" customHeight="1">
+      <c r="AE19" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG19" s="11">
+        <f>R22+S22+Z22+AA22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" ht="18" customHeight="1">
       <c r="J20" s="6">
         <v>16</v>
       </c>
@@ -2273,7 +2450,7 @@
         <v>10000</v>
       </c>
       <c r="R20" s="4">
-        <f>P19*C24</f>
+        <f>P19*D23</f>
         <v>0</v>
       </c>
       <c r="S20" s="4">
@@ -2314,8 +2491,18 @@
         <f>AA20/Y19</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:29" ht="18" customHeight="1">
+      <c r="AE20" s="2">
+        <v>16</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG20" s="11">
+        <f>R23+S23+Z23+AA23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" ht="18" customHeight="1">
       <c r="J21" s="6">
         <v>17</v>
       </c>
@@ -2339,7 +2526,7 @@
         <v>10000</v>
       </c>
       <c r="R21" s="4">
-        <f>P20*C24</f>
+        <f>P20*D23</f>
         <v>0</v>
       </c>
       <c r="S21" s="4">
@@ -2380,16 +2567,35 @@
         <f>AA21/Y20</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:29" ht="18" customHeight="1">
-      <c r="B22" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="AE21" s="2">
+        <v>17</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG21" s="11">
+        <f>R24+S24+Z24+AA24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" ht="18" customHeight="1">
+      <c r="B22" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>197</v>
+      <c r="C22" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="J22" s="6">
         <v>18</v>
@@ -2414,7 +2620,7 @@
         <v>10000</v>
       </c>
       <c r="R22" s="4">
-        <f>P21*C24</f>
+        <f>P21*D23</f>
         <v>0</v>
       </c>
       <c r="S22" s="4">
@@ -2455,17 +2661,39 @@
         <f>AA22/Y21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:29" ht="18" customHeight="1">
-      <c r="B23" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="19">
-        <f>(1+D23)^(1/12)-1</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.08500000000000001</v>
+      <c r="AE22" s="2">
+        <v>18</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG22" s="11">
+        <f>R25+S25+Z25+AA25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" ht="18" customHeight="1">
+      <c r="B23" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="20">
+        <f>(1+C24)^(1/12)-1</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="20">
+        <f>(1+D24)^(1/12)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <f>IRR(AG5:AG168)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <f>SUM(K5:K8)*H18-SUM(Q8:Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>400000</v>
       </c>
       <c r="J23" s="6">
         <v>19</v>
@@ -2490,7 +2718,7 @@
         <v>10000</v>
       </c>
       <c r="R23" s="4">
-        <f>P22*C24</f>
+        <f>P22*D23</f>
         <v>0</v>
       </c>
       <c r="S23" s="4">
@@ -2531,17 +2759,30 @@
         <f>AA23/Y22</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:29" ht="18" customHeight="1">
-      <c r="B24" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="19">
-        <f>(1+D24)^(1/12)-1</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="AE23" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG23" s="11">
+        <f>R26+S26+Z26+AA26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" ht="18" customHeight="1">
+      <c r="B24" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="D24" s="15">
         <v>0.149295016450141</v>
+      </c>
+      <c r="E24" s="15">
+        <f>(1+E23)^12-1</f>
+        <v>0</v>
       </c>
       <c r="J24" s="6">
         <v>20</v>
@@ -2566,7 +2807,7 @@
         <v>10000</v>
       </c>
       <c r="R24" s="4">
-        <f>P23*C24</f>
+        <f>P23*D23</f>
         <v>0</v>
       </c>
       <c r="S24" s="4">
@@ -2607,8 +2848,18 @@
         <f>AA24/Y23</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:29" ht="18" customHeight="1">
+      <c r="AE24" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG24" s="11">
+        <f>R27+S27+Z27+AA27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" ht="18" customHeight="1">
       <c r="J25" s="6">
         <v>21</v>
       </c>
@@ -2632,7 +2883,7 @@
         <v>10000</v>
       </c>
       <c r="R25" s="4">
-        <f>P24*C24</f>
+        <f>P24*D23</f>
         <v>0</v>
       </c>
       <c r="S25" s="4">
@@ -2673,8 +2924,18 @@
         <f>AA25/Y24</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:29" ht="18" customHeight="1">
+      <c r="AE25" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG25" s="11">
+        <f>R28+S28+Z28+AA28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" ht="18" customHeight="1">
       <c r="J26" s="6">
         <v>22</v>
       </c>
@@ -2698,7 +2959,7 @@
         <v>10000</v>
       </c>
       <c r="R26" s="4">
-        <f>P25*C24</f>
+        <f>P25*D23</f>
         <v>0</v>
       </c>
       <c r="S26" s="4">
@@ -2739,8 +3000,18 @@
         <f>AA26/Y25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:29" ht="18" customHeight="1">
+      <c r="AE26" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG26" s="11">
+        <f>R29+S29+Z29+AA29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" ht="18" customHeight="1">
       <c r="J27" s="6">
         <v>23</v>
       </c>
@@ -2764,7 +3035,7 @@
         <v>10000</v>
       </c>
       <c r="R27" s="4">
-        <f>P26*C24</f>
+        <f>P26*D23</f>
         <v>0</v>
       </c>
       <c r="S27" s="4">
@@ -2805,8 +3076,18 @@
         <f>AA27/Y26</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:29" ht="18" customHeight="1">
+      <c r="AE27" s="2">
+        <v>23</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG27" s="11">
+        <f>R30+S30+Z30+AA30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" ht="18" customHeight="1">
       <c r="J28" s="6">
         <v>24</v>
       </c>
@@ -2830,7 +3111,7 @@
         <v>10000</v>
       </c>
       <c r="R28" s="4">
-        <f>P27*C24</f>
+        <f>P27*D23</f>
         <v>0</v>
       </c>
       <c r="S28" s="4">
@@ -2871,8 +3152,18 @@
         <f>AA28/Y27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:29" ht="18" customHeight="1">
+      <c r="AE28" s="2">
+        <v>24</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG28" s="11">
+        <f>R31+S31+Z31+AA31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" ht="18" customHeight="1">
       <c r="J29" s="6">
         <v>25</v>
       </c>
@@ -2896,7 +3187,7 @@
         <v>10000</v>
       </c>
       <c r="R29" s="4">
-        <f>P28*C24</f>
+        <f>P28*D23</f>
         <v>0</v>
       </c>
       <c r="S29" s="4">
@@ -2937,8 +3228,18 @@
         <f>AA29/Y28</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:29" ht="18" customHeight="1">
+      <c r="AE29" s="2">
+        <v>25</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG29" s="11">
+        <f>R32+S32+Z32+AA32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" ht="18" customHeight="1">
       <c r="J30" s="6">
         <v>26</v>
       </c>
@@ -2962,7 +3263,7 @@
         <v>10000</v>
       </c>
       <c r="R30" s="4">
-        <f>P29*C24</f>
+        <f>P29*D23</f>
         <v>0</v>
       </c>
       <c r="S30" s="4">
@@ -3003,8 +3304,18 @@
         <f>AA30/Y29</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:29" ht="18" customHeight="1">
+      <c r="AE30" s="2">
+        <v>26</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG30" s="11">
+        <f>R33+S33+Z33+AA33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" ht="18" customHeight="1">
       <c r="J31" s="6">
         <v>27</v>
       </c>
@@ -3028,7 +3339,7 @@
         <v>10000</v>
       </c>
       <c r="R31" s="4">
-        <f>P30*C24</f>
+        <f>P30*D23</f>
         <v>0</v>
       </c>
       <c r="S31" s="4">
@@ -3069,8 +3380,18 @@
         <f>AA31/Y30</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:29" ht="18" customHeight="1">
+      <c r="AE31" s="2">
+        <v>27</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG31" s="11">
+        <f>R34+S34+Z34+AA34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" ht="18" customHeight="1">
       <c r="J32" s="6">
         <v>28</v>
       </c>
@@ -3094,7 +3415,7 @@
         <v>10000</v>
       </c>
       <c r="R32" s="4">
-        <f>P31*C24</f>
+        <f>P31*D23</f>
         <v>0</v>
       </c>
       <c r="S32" s="4">
@@ -3135,8 +3456,18 @@
         <f>AA32/Y31</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="10:29" ht="18" customHeight="1">
+      <c r="AE32" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG32" s="11">
+        <f>R35+S35+Z35+AA35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="10:33" ht="18" customHeight="1">
       <c r="J33" s="6">
         <v>29</v>
       </c>
@@ -3160,7 +3491,7 @@
         <v>10000</v>
       </c>
       <c r="R33" s="4">
-        <f>P32*C24</f>
+        <f>P32*D23</f>
         <v>0</v>
       </c>
       <c r="S33" s="4">
@@ -3201,8 +3532,18 @@
         <f>AA33/Y32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="10:29" ht="18" customHeight="1">
+      <c r="AE33" s="2">
+        <v>29</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG33" s="11">
+        <f>R36+S36+Z36+AA36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="10:33" ht="18" customHeight="1">
       <c r="J34" s="6">
         <v>30</v>
       </c>
@@ -3226,7 +3567,7 @@
         <v>10000</v>
       </c>
       <c r="R34" s="4">
-        <f>P33*C24</f>
+        <f>P33*D23</f>
         <v>0</v>
       </c>
       <c r="S34" s="4">
@@ -3267,8 +3608,18 @@
         <f>AA34/Y33</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="10:29" ht="18" customHeight="1">
+      <c r="AE34" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG34" s="11">
+        <f>R37+S37+Z37+AA37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="10:33" ht="18" customHeight="1">
       <c r="J35" s="6">
         <v>31</v>
       </c>
@@ -3292,7 +3643,7 @@
         <v>10000</v>
       </c>
       <c r="R35" s="4">
-        <f>P34*C24</f>
+        <f>P34*D23</f>
         <v>0</v>
       </c>
       <c r="S35" s="4">
@@ -3333,8 +3684,18 @@
         <f>AA35/Y34</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="10:29" ht="18" customHeight="1">
+      <c r="AE35" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG35" s="11">
+        <f>R38+S38+Z38+AA38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="10:33" ht="18" customHeight="1">
       <c r="J36" s="6">
         <v>32</v>
       </c>
@@ -3358,7 +3719,7 @@
         <v>10000</v>
       </c>
       <c r="R36" s="4">
-        <f>P35*C24</f>
+        <f>P35*D23</f>
         <v>0</v>
       </c>
       <c r="S36" s="4">
@@ -3399,8 +3760,18 @@
         <f>AA36/Y35</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="10:29" ht="18" customHeight="1">
+      <c r="AE36" s="2">
+        <v>32</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG36" s="11">
+        <f>R39+S39+Z39+AA39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="10:33" ht="18" customHeight="1">
       <c r="J37" s="6">
         <v>33</v>
       </c>
@@ -3424,7 +3795,7 @@
         <v>10000</v>
       </c>
       <c r="R37" s="4">
-        <f>P36*C24</f>
+        <f>P36*D23</f>
         <v>0</v>
       </c>
       <c r="S37" s="4">
@@ -3465,8 +3836,18 @@
         <f>AA37/Y36</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="10:29" ht="18" customHeight="1">
+      <c r="AE37" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG37" s="11">
+        <f>R40+S40+Z40+AA40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="10:33" ht="18" customHeight="1">
       <c r="J38" s="6">
         <v>34</v>
       </c>
@@ -3490,7 +3871,7 @@
         <v>10000</v>
       </c>
       <c r="R38" s="4">
-        <f>P37*C24</f>
+        <f>P37*D23</f>
         <v>0</v>
       </c>
       <c r="S38" s="4">
@@ -3531,8 +3912,18 @@
         <f>AA38/Y37</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="10:29" ht="18" customHeight="1">
+      <c r="AE38" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG38" s="11">
+        <f>R41+S41+Z41+AA41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="10:33" ht="18" customHeight="1">
       <c r="J39" s="6">
         <v>35</v>
       </c>
@@ -3556,7 +3947,7 @@
         <v>10000</v>
       </c>
       <c r="R39" s="4">
-        <f>P38*C24</f>
+        <f>P38*D23</f>
         <v>0</v>
       </c>
       <c r="S39" s="4">
@@ -3597,8 +3988,18 @@
         <f>AA39/Y38</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="10:29" ht="18" customHeight="1">
+      <c r="AE39" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG39" s="11">
+        <f>R42+S42+Z42+AA42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="10:33" ht="18" customHeight="1">
       <c r="J40" s="6">
         <v>36</v>
       </c>
@@ -3622,7 +4023,7 @@
         <v>10000</v>
       </c>
       <c r="R40" s="4">
-        <f>P39*C24</f>
+        <f>P39*D23</f>
         <v>0</v>
       </c>
       <c r="S40" s="4">
@@ -3663,8 +4064,18 @@
         <f>AA40/Y39</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="10:29" ht="18" customHeight="1">
+      <c r="AE40" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG40" s="11">
+        <f>R43+S43+Z43+AA43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="10:33" ht="18" customHeight="1">
       <c r="J41" s="6">
         <v>37</v>
       </c>
@@ -3688,7 +4099,7 @@
         <v>10000</v>
       </c>
       <c r="R41" s="4">
-        <f>P40*C24</f>
+        <f>P40*D23</f>
         <v>0</v>
       </c>
       <c r="S41" s="4">
@@ -3729,8 +4140,18 @@
         <f>AA41/Y40</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="10:29" ht="18" customHeight="1">
+      <c r="AE41" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG41" s="11">
+        <f>R44+S44+Z44+AA44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="10:33" ht="18" customHeight="1">
       <c r="J42" s="6">
         <v>38</v>
       </c>
@@ -3754,7 +4175,7 @@
         <v>10000</v>
       </c>
       <c r="R42" s="4">
-        <f>P41*C24</f>
+        <f>P41*D23</f>
         <v>0</v>
       </c>
       <c r="S42" s="4">
@@ -3795,8 +4216,18 @@
         <f>AA42/Y41</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="10:29" ht="18" customHeight="1">
+      <c r="AE42" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG42" s="11">
+        <f>R45+S45+Z45+AA45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="10:33" ht="18" customHeight="1">
       <c r="J43" s="6">
         <v>39</v>
       </c>
@@ -3820,7 +4251,7 @@
         <v>10000</v>
       </c>
       <c r="R43" s="4">
-        <f>P42*C24</f>
+        <f>P42*D23</f>
         <v>0</v>
       </c>
       <c r="S43" s="4">
@@ -3861,8 +4292,18 @@
         <f>AA43/Y42</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="10:29" ht="18" customHeight="1">
+      <c r="AE43" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG43" s="11">
+        <f>R46+S46+Z46+AA46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="10:33" ht="18" customHeight="1">
       <c r="J44" s="6">
         <v>40</v>
       </c>
@@ -3886,7 +4327,7 @@
         <v>10000</v>
       </c>
       <c r="R44" s="4">
-        <f>P43*C24</f>
+        <f>P43*D23</f>
         <v>0</v>
       </c>
       <c r="S44" s="4">
@@ -3927,8 +4368,18 @@
         <f>AA44/Y43</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="10:29" ht="18" customHeight="1">
+      <c r="AE44" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG44" s="11">
+        <f>R47+S47+Z47+AA47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="10:33" ht="18" customHeight="1">
       <c r="J45" s="6">
         <v>41</v>
       </c>
@@ -3952,7 +4403,7 @@
         <v>10000</v>
       </c>
       <c r="R45" s="4">
-        <f>P44*C24</f>
+        <f>P44*D23</f>
         <v>0</v>
       </c>
       <c r="S45" s="4">
@@ -3993,8 +4444,18 @@
         <f>AA45/Y44</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="10:29" ht="18" customHeight="1">
+      <c r="AE45" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG45" s="11">
+        <f>R48+S48+Z48+AA48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="10:33" ht="18" customHeight="1">
       <c r="J46" s="6">
         <v>42</v>
       </c>
@@ -4018,7 +4479,7 @@
         <v>10000</v>
       </c>
       <c r="R46" s="4">
-        <f>P45*C24</f>
+        <f>P45*D23</f>
         <v>0</v>
       </c>
       <c r="S46" s="4">
@@ -4059,8 +4520,18 @@
         <f>AA46/Y45</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="10:29" ht="18" customHeight="1">
+      <c r="AE46" s="2">
+        <v>42</v>
+      </c>
+      <c r="AF46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG46" s="11">
+        <f>R49+S49+Z49+AA49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="10:33" ht="18" customHeight="1">
       <c r="J47" s="6">
         <v>43</v>
       </c>
@@ -4084,7 +4555,7 @@
         <v>10000</v>
       </c>
       <c r="R47" s="4">
-        <f>P46*C24</f>
+        <f>P46*D23</f>
         <v>0</v>
       </c>
       <c r="S47" s="4">
@@ -4125,8 +4596,18 @@
         <f>AA47/Y46</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="10:29" ht="18" customHeight="1">
+      <c r="AE47" s="2">
+        <v>43</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG47" s="11">
+        <f>R50+S50+Z50+AA50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="10:33" ht="18" customHeight="1">
       <c r="J48" s="6">
         <v>44</v>
       </c>
@@ -4150,7 +4631,7 @@
         <v>10000</v>
       </c>
       <c r="R48" s="4">
-        <f>P47*C24</f>
+        <f>P47*D23</f>
         <v>0</v>
       </c>
       <c r="S48" s="4">
@@ -4191,8 +4672,18 @@
         <f>AA48/Y47</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="10:29" ht="18" customHeight="1">
+      <c r="AE48" s="2">
+        <v>44</v>
+      </c>
+      <c r="AF48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG48" s="11">
+        <f>R51+S51+Z51+AA51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="10:33" ht="18" customHeight="1">
       <c r="J49" s="6">
         <v>45</v>
       </c>
@@ -4216,7 +4707,7 @@
         <v>10000</v>
       </c>
       <c r="R49" s="4">
-        <f>P48*C24</f>
+        <f>P48*D23</f>
         <v>0</v>
       </c>
       <c r="S49" s="4">
@@ -4257,8 +4748,18 @@
         <f>AA49/Y48</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="10:29" ht="18" customHeight="1">
+      <c r="AE49" s="2">
+        <v>45</v>
+      </c>
+      <c r="AF49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG49" s="11">
+        <f>R52+S52+Z52+AA52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="10:33" ht="18" customHeight="1">
       <c r="J50" s="6">
         <v>46</v>
       </c>
@@ -4282,7 +4783,7 @@
         <v>10000</v>
       </c>
       <c r="R50" s="4">
-        <f>P49*C24</f>
+        <f>P49*D23</f>
         <v>0</v>
       </c>
       <c r="S50" s="4">
@@ -4323,8 +4824,18 @@
         <f>AA50/Y49</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="10:29" ht="18" customHeight="1">
+      <c r="AE50" s="2">
+        <v>46</v>
+      </c>
+      <c r="AF50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG50" s="11">
+        <f>R53+S53+Z53+AA53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="10:33" ht="18" customHeight="1">
       <c r="J51" s="6">
         <v>47</v>
       </c>
@@ -4348,7 +4859,7 @@
         <v>10000</v>
       </c>
       <c r="R51" s="4">
-        <f>P50*C24</f>
+        <f>P50*D23</f>
         <v>0</v>
       </c>
       <c r="S51" s="4">
@@ -4389,8 +4900,18 @@
         <f>AA51/Y50</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="10:29" ht="18" customHeight="1">
+      <c r="AE51" s="2">
+        <v>47</v>
+      </c>
+      <c r="AF51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG51" s="11">
+        <f>R54+S54+Z54+AA54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="10:33" ht="18" customHeight="1">
       <c r="J52" s="6">
         <v>48</v>
       </c>
@@ -4414,7 +4935,7 @@
         <v>10000</v>
       </c>
       <c r="R52" s="4">
-        <f>P51*C24</f>
+        <f>P51*D23</f>
         <v>0</v>
       </c>
       <c r="S52" s="4">
@@ -4455,8 +4976,18 @@
         <f>AA52/Y51</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="10:29" ht="18" customHeight="1">
+      <c r="AE52" s="2">
+        <v>48</v>
+      </c>
+      <c r="AF52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG52" s="11">
+        <f>R55+S55+Z55+AA55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="10:33" ht="18" customHeight="1">
       <c r="J53" s="6">
         <v>49</v>
       </c>
@@ -4480,7 +5011,7 @@
         <v>10000</v>
       </c>
       <c r="R53" s="4">
-        <f>P52*C24</f>
+        <f>P52*D23</f>
         <v>0</v>
       </c>
       <c r="S53" s="4">
@@ -4521,8 +5052,18 @@
         <f>AA53/Y52</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="10:29" ht="18" customHeight="1">
+      <c r="AE53" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG53" s="11">
+        <f>R56+S56+Z56+AA56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="10:33" ht="18" customHeight="1">
       <c r="J54" s="6">
         <v>50</v>
       </c>
@@ -4546,7 +5087,7 @@
         <v>10000</v>
       </c>
       <c r="R54" s="4">
-        <f>P53*C24</f>
+        <f>P53*D23</f>
         <v>0</v>
       </c>
       <c r="S54" s="4">
@@ -4587,8 +5128,18 @@
         <f>AA54/Y53</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="10:29" ht="18" customHeight="1">
+      <c r="AE54" s="2">
+        <v>50</v>
+      </c>
+      <c r="AF54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG54" s="11">
+        <f>R57+S57+Z57+AA57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="10:33" ht="18" customHeight="1">
       <c r="J55" s="6">
         <v>51</v>
       </c>
@@ -4612,7 +5163,7 @@
         <v>10000</v>
       </c>
       <c r="R55" s="4">
-        <f>P54*C24</f>
+        <f>P54*D23</f>
         <v>0</v>
       </c>
       <c r="S55" s="4">
@@ -4653,8 +5204,18 @@
         <f>AA55/Y54</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="10:29" ht="18" customHeight="1">
+      <c r="AE55" s="2">
+        <v>51</v>
+      </c>
+      <c r="AF55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG55" s="11">
+        <f>R58+S58+Z58+AA58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="10:33" ht="18" customHeight="1">
       <c r="J56" s="6">
         <v>52</v>
       </c>
@@ -4678,7 +5239,7 @@
         <v>10000</v>
       </c>
       <c r="R56" s="4">
-        <f>P55*C24</f>
+        <f>P55*D23</f>
         <v>0</v>
       </c>
       <c r="S56" s="4">
@@ -4719,8 +5280,18 @@
         <f>AA56/Y55</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="10:29" ht="18" customHeight="1">
+      <c r="AE56" s="2">
+        <v>52</v>
+      </c>
+      <c r="AF56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG56" s="11">
+        <f>R59+S59+Z59+AA59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="10:33" ht="18" customHeight="1">
       <c r="J57" s="6">
         <v>53</v>
       </c>
@@ -4744,7 +5315,7 @@
         <v>10000</v>
       </c>
       <c r="R57" s="4">
-        <f>P56*C24</f>
+        <f>P56*D23</f>
         <v>0</v>
       </c>
       <c r="S57" s="4">
@@ -4785,8 +5356,18 @@
         <f>AA57/Y56</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="10:29" ht="18" customHeight="1">
+      <c r="AE57" s="2">
+        <v>53</v>
+      </c>
+      <c r="AF57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG57" s="11">
+        <f>R60+S60+Z60+AA60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="10:33" ht="18" customHeight="1">
       <c r="J58" s="6">
         <v>54</v>
       </c>
@@ -4810,7 +5391,7 @@
         <v>10000</v>
       </c>
       <c r="R58" s="4">
-        <f>P57*C24</f>
+        <f>P57*D23</f>
         <v>0</v>
       </c>
       <c r="S58" s="4">
@@ -4851,8 +5432,18 @@
         <f>AA58/Y57</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="10:29" ht="18" customHeight="1">
+      <c r="AE58" s="2">
+        <v>54</v>
+      </c>
+      <c r="AF58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG58" s="11">
+        <f>R61+S61+Z61+AA61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="10:33" ht="18" customHeight="1">
       <c r="J59" s="6">
         <v>55</v>
       </c>
@@ -4876,7 +5467,7 @@
         <v>10000</v>
       </c>
       <c r="R59" s="4">
-        <f>P58*C24</f>
+        <f>P58*D23</f>
         <v>0</v>
       </c>
       <c r="S59" s="4">
@@ -4917,8 +5508,18 @@
         <f>AA59/Y58</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="10:29" ht="18" customHeight="1">
+      <c r="AE59" s="2">
+        <v>55</v>
+      </c>
+      <c r="AF59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG59" s="11">
+        <f>R62+S62+Z62+AA62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="10:33" ht="18" customHeight="1">
       <c r="J60" s="6">
         <v>56</v>
       </c>
@@ -4942,7 +5543,7 @@
         <v>10000</v>
       </c>
       <c r="R60" s="4">
-        <f>P59*C24</f>
+        <f>P59*D23</f>
         <v>0</v>
       </c>
       <c r="S60" s="4">
@@ -4983,8 +5584,18 @@
         <f>AA60/Y59</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="10:29" ht="18" customHeight="1">
+      <c r="AE60" s="2">
+        <v>56</v>
+      </c>
+      <c r="AF60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG60" s="11">
+        <f>R63+S63+Z63+AA63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="10:33" ht="18" customHeight="1">
       <c r="J61" s="6">
         <v>57</v>
       </c>
@@ -5008,7 +5619,7 @@
         <v>10000</v>
       </c>
       <c r="R61" s="4">
-        <f>P60*C24</f>
+        <f>P60*D23</f>
         <v>0</v>
       </c>
       <c r="S61" s="4">
@@ -5049,8 +5660,18 @@
         <f>AA61/Y60</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="10:29" ht="18" customHeight="1">
+      <c r="AE61" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG61" s="11">
+        <f>R64+S64+Z64+AA64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="10:33" ht="18" customHeight="1">
       <c r="J62" s="6">
         <v>58</v>
       </c>
@@ -5074,7 +5695,7 @@
         <v>10000</v>
       </c>
       <c r="R62" s="4">
-        <f>P61*C24</f>
+        <f>P61*D23</f>
         <v>0</v>
       </c>
       <c r="S62" s="4">
@@ -5115,8 +5736,18 @@
         <f>AA62/Y61</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="10:29" ht="18" customHeight="1">
+      <c r="AE62" s="2">
+        <v>58</v>
+      </c>
+      <c r="AF62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG62" s="11">
+        <f>R65+S65+Z65+AA65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="10:33" ht="18" customHeight="1">
       <c r="J63" s="6">
         <v>59</v>
       </c>
@@ -5140,7 +5771,7 @@
         <v>10000</v>
       </c>
       <c r="R63" s="4">
-        <f>P62*C24</f>
+        <f>P62*D23</f>
         <v>0</v>
       </c>
       <c r="S63" s="4">
@@ -5181,8 +5812,18 @@
         <f>AA63/Y62</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="10:29" ht="18" customHeight="1">
+      <c r="AE63" s="2">
+        <v>59</v>
+      </c>
+      <c r="AF63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG63" s="11">
+        <f>R66+S66+Z66+AA66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="10:33" ht="18" customHeight="1">
       <c r="J64" s="6">
         <v>60</v>
       </c>
@@ -5206,7 +5847,7 @@
         <v>10000</v>
       </c>
       <c r="R64" s="4">
-        <f>P63*C24</f>
+        <f>P63*D23</f>
         <v>0</v>
       </c>
       <c r="S64" s="4">
@@ -5247,8 +5888,18 @@
         <f>AA64/Y63</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="10:29" ht="18" customHeight="1">
+      <c r="AE64" s="2">
+        <v>60</v>
+      </c>
+      <c r="AF64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG64" s="11">
+        <f>R67+S67+Z67+AA67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="10:33" ht="18" customHeight="1">
       <c r="J65" s="6">
         <v>61</v>
       </c>
@@ -5272,7 +5923,7 @@
         <v>10000</v>
       </c>
       <c r="R65" s="4">
-        <f>P64*C24</f>
+        <f>P64*D23</f>
         <v>0</v>
       </c>
       <c r="S65" s="4">
@@ -5313,8 +5964,18 @@
         <f>AA65/Y64</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="10:29" ht="18" customHeight="1">
+      <c r="AE65" s="2">
+        <v>61</v>
+      </c>
+      <c r="AF65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG65" s="11">
+        <f>R68+S68+Z68+AA68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="10:33" ht="18" customHeight="1">
       <c r="J66" s="6">
         <v>62</v>
       </c>
@@ -5338,7 +5999,7 @@
         <v>10000</v>
       </c>
       <c r="R66" s="4">
-        <f>P65*C24</f>
+        <f>P65*D23</f>
         <v>0</v>
       </c>
       <c r="S66" s="4">
@@ -5379,8 +6040,18 @@
         <f>AA66/Y65</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="10:29" ht="18" customHeight="1">
+      <c r="AE66" s="2">
+        <v>62</v>
+      </c>
+      <c r="AF66" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG66" s="11">
+        <f>R69+S69+Z69+AA69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="10:33" ht="18" customHeight="1">
       <c r="J67" s="6">
         <v>63</v>
       </c>
@@ -5404,7 +6075,7 @@
         <v>10000</v>
       </c>
       <c r="R67" s="4">
-        <f>P66*C24</f>
+        <f>P66*D23</f>
         <v>0</v>
       </c>
       <c r="S67" s="4">
@@ -5445,8 +6116,18 @@
         <f>AA67/Y66</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="10:29" ht="18" customHeight="1">
+      <c r="AE67" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG67" s="11">
+        <f>R70+S70+Z70+AA70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="10:33" ht="18" customHeight="1">
       <c r="J68" s="6">
         <v>64</v>
       </c>
@@ -5470,7 +6151,7 @@
         <v>10000</v>
       </c>
       <c r="R68" s="4">
-        <f>P67*C24</f>
+        <f>P67*D23</f>
         <v>0</v>
       </c>
       <c r="S68" s="4">
@@ -5511,8 +6192,18 @@
         <f>AA68/Y67</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="10:29" ht="18" customHeight="1">
+      <c r="AE68" s="2">
+        <v>64</v>
+      </c>
+      <c r="AF68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG68" s="11">
+        <f>R71+S71+Z71+AA71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="10:33" ht="18" customHeight="1">
       <c r="J69" s="6">
         <v>65</v>
       </c>
@@ -5536,7 +6227,7 @@
         <v>10000</v>
       </c>
       <c r="R69" s="4">
-        <f>P68*C24</f>
+        <f>P68*D23</f>
         <v>0</v>
       </c>
       <c r="S69" s="4">
@@ -5577,8 +6268,18 @@
         <f>AA69/Y68</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="10:29" ht="18" customHeight="1">
+      <c r="AE69" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG69" s="11">
+        <f>R72+S72+Z72+AA72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="10:33" ht="18" customHeight="1">
       <c r="J70" s="6">
         <v>66</v>
       </c>
@@ -5602,7 +6303,7 @@
         <v>10000</v>
       </c>
       <c r="R70" s="4">
-        <f>P69*C24</f>
+        <f>P69*D23</f>
         <v>0</v>
       </c>
       <c r="S70" s="4">
@@ -5643,8 +6344,18 @@
         <f>AA70/Y69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="10:29" ht="18" customHeight="1">
+      <c r="AE70" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF70" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG70" s="11">
+        <f>R73+S73+Z73+AA73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="10:33" ht="18" customHeight="1">
       <c r="J71" s="6">
         <v>67</v>
       </c>
@@ -5668,7 +6379,7 @@
         <v>10000</v>
       </c>
       <c r="R71" s="4">
-        <f>P70*C24</f>
+        <f>P70*D23</f>
         <v>0</v>
       </c>
       <c r="S71" s="4">
@@ -5709,8 +6420,18 @@
         <f>AA71/Y70</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="10:29" ht="18" customHeight="1">
+      <c r="AE71" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG71" s="11">
+        <f>R74+S74+Z74+AA74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="10:33" ht="18" customHeight="1">
       <c r="J72" s="6">
         <v>68</v>
       </c>
@@ -5734,7 +6455,7 @@
         <v>10000</v>
       </c>
       <c r="R72" s="4">
-        <f>P71*C24</f>
+        <f>P71*D23</f>
         <v>0</v>
       </c>
       <c r="S72" s="4">
@@ -5775,8 +6496,18 @@
         <f>AA72/Y71</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="10:29" ht="18" customHeight="1">
+      <c r="AE72" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF72" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG72" s="11">
+        <f>R75+S75+Z75+AA75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="10:33" ht="18" customHeight="1">
       <c r="J73" s="6">
         <v>69</v>
       </c>
@@ -5800,7 +6531,7 @@
         <v>10000</v>
       </c>
       <c r="R73" s="4">
-        <f>P72*C24</f>
+        <f>P72*D23</f>
         <v>0</v>
       </c>
       <c r="S73" s="4">
@@ -5841,8 +6572,18 @@
         <f>AA73/Y72</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="10:29" ht="18" customHeight="1">
+      <c r="AE73" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF73" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG73" s="11">
+        <f>R76+S76+Z76+AA76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="10:33" ht="18" customHeight="1">
       <c r="J74" s="6">
         <v>70</v>
       </c>
@@ -5866,7 +6607,7 @@
         <v>10000</v>
       </c>
       <c r="R74" s="4">
-        <f>P73*C24</f>
+        <f>P73*D23</f>
         <v>0</v>
       </c>
       <c r="S74" s="4">
@@ -5907,8 +6648,18 @@
         <f>AA74/Y73</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="10:29" ht="18" customHeight="1">
+      <c r="AE74" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG74" s="11">
+        <f>R77+S77+Z77+AA77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="10:33" ht="18" customHeight="1">
       <c r="J75" s="6">
         <v>71</v>
       </c>
@@ -5932,7 +6683,7 @@
         <v>10000</v>
       </c>
       <c r="R75" s="4">
-        <f>P74*C24</f>
+        <f>P74*D23</f>
         <v>0</v>
       </c>
       <c r="S75" s="4">
@@ -5973,8 +6724,18 @@
         <f>AA75/Y74</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="10:29" ht="18" customHeight="1">
+      <c r="AE75" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF75" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG75" s="11">
+        <f>R78+S78+Z78+AA78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="10:33" ht="18" customHeight="1">
       <c r="J76" s="6">
         <v>72</v>
       </c>
@@ -5998,7 +6759,7 @@
         <v>10000</v>
       </c>
       <c r="R76" s="4">
-        <f>P75*C24</f>
+        <f>P75*D23</f>
         <v>0</v>
       </c>
       <c r="S76" s="4">
@@ -6039,8 +6800,18 @@
         <f>AA76/Y75</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="10:29" ht="18" customHeight="1">
+      <c r="AE76" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF76" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG76" s="11">
+        <f>R79+S79+Z79+AA79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="10:33" ht="18" customHeight="1">
       <c r="J77" s="6">
         <v>73</v>
       </c>
@@ -6064,7 +6835,7 @@
         <v>10000</v>
       </c>
       <c r="R77" s="4">
-        <f>P76*C24</f>
+        <f>P76*D23</f>
         <v>0</v>
       </c>
       <c r="S77" s="4">
@@ -6105,8 +6876,18 @@
         <f>AA77/Y76</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="10:29" ht="18" customHeight="1">
+      <c r="AE77" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF77" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG77" s="11">
+        <f>R80+S80+Z80+AA80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="10:33" ht="18" customHeight="1">
       <c r="J78" s="6">
         <v>74</v>
       </c>
@@ -6130,7 +6911,7 @@
         <v>10000</v>
       </c>
       <c r="R78" s="4">
-        <f>P77*C24</f>
+        <f>P77*D23</f>
         <v>0</v>
       </c>
       <c r="S78" s="4">
@@ -6171,8 +6952,18 @@
         <f>AA78/Y77</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="10:29" ht="18" customHeight="1">
+      <c r="AE78" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG78" s="11">
+        <f>R81+S81+Z81+AA81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="10:33" ht="18" customHeight="1">
       <c r="J79" s="6">
         <v>75</v>
       </c>
@@ -6196,7 +6987,7 @@
         <v>10000</v>
       </c>
       <c r="R79" s="4">
-        <f>P78*C24</f>
+        <f>P78*D23</f>
         <v>0</v>
       </c>
       <c r="S79" s="4">
@@ -6237,8 +7028,18 @@
         <f>AA79/Y78</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="10:29" ht="18" customHeight="1">
+      <c r="AE79" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG79" s="11">
+        <f>R82+S82+Z82+AA82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="10:33" ht="18" customHeight="1">
       <c r="J80" s="6">
         <v>76</v>
       </c>
@@ -6262,7 +7063,7 @@
         <v>10000</v>
       </c>
       <c r="R80" s="4">
-        <f>P79*C24</f>
+        <f>P79*D23</f>
         <v>0</v>
       </c>
       <c r="S80" s="4">
@@ -6303,8 +7104,18 @@
         <f>AA80/Y79</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="10:29" ht="18" customHeight="1">
+      <c r="AE80" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF80" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG80" s="11">
+        <f>R83+S83+Z83+AA83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="10:33" ht="18" customHeight="1">
       <c r="J81" s="6">
         <v>77</v>
       </c>
@@ -6328,7 +7139,7 @@
         <v>10000</v>
       </c>
       <c r="R81" s="4">
-        <f>P80*C24</f>
+        <f>P80*D23</f>
         <v>0</v>
       </c>
       <c r="S81" s="4">
@@ -6369,8 +7180,18 @@
         <f>AA81/Y80</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="10:29" ht="18" customHeight="1">
+      <c r="AE81" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF81" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG81" s="11">
+        <f>R84+S84+Z84+AA84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="10:33" ht="18" customHeight="1">
       <c r="J82" s="6">
         <v>78</v>
       </c>
@@ -6394,7 +7215,7 @@
         <v>10000</v>
       </c>
       <c r="R82" s="4">
-        <f>P81*C24</f>
+        <f>P81*D23</f>
         <v>0</v>
       </c>
       <c r="S82" s="4">
@@ -6435,8 +7256,18 @@
         <f>AA82/Y81</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="10:29" ht="18" customHeight="1">
+      <c r="AE82" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG82" s="11">
+        <f>R85+S85+Z85+AA85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="10:33" ht="18" customHeight="1">
       <c r="J83" s="6">
         <v>79</v>
       </c>
@@ -6460,7 +7291,7 @@
         <v>10000</v>
       </c>
       <c r="R83" s="4">
-        <f>P82*C24</f>
+        <f>P82*D23</f>
         <v>0</v>
       </c>
       <c r="S83" s="4">
@@ -6501,8 +7332,18 @@
         <f>AA83/Y82</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="10:29" ht="18" customHeight="1">
+      <c r="AE83" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF83" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG83" s="11">
+        <f>R86+S86+Z86+AA86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="10:33" ht="18" customHeight="1">
       <c r="J84" s="6">
         <v>80</v>
       </c>
@@ -6526,7 +7367,7 @@
         <v>10000</v>
       </c>
       <c r="R84" s="4">
-        <f>P83*C24</f>
+        <f>P83*D23</f>
         <v>0</v>
       </c>
       <c r="S84" s="4">
@@ -6567,8 +7408,18 @@
         <f>AA84/Y83</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="10:29" ht="18" customHeight="1">
+      <c r="AE84" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF84" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG84" s="11">
+        <f>R87+S87+Z87+AA87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="10:33" ht="18" customHeight="1">
       <c r="J85" s="6">
         <v>81</v>
       </c>
@@ -6592,7 +7443,7 @@
         <v>10000</v>
       </c>
       <c r="R85" s="4">
-        <f>P84*C24</f>
+        <f>P84*D23</f>
         <v>0</v>
       </c>
       <c r="S85" s="4">
@@ -6633,8 +7484,18 @@
         <f>AA85/Y84</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="10:29" ht="18" customHeight="1">
+      <c r="AE85" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF85" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG85" s="11">
+        <f>R88+S88+Z88+AA88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="10:33" ht="18" customHeight="1">
       <c r="J86" s="6">
         <v>82</v>
       </c>
@@ -6658,7 +7519,7 @@
         <v>10000</v>
       </c>
       <c r="R86" s="4">
-        <f>P85*C24</f>
+        <f>P85*D23</f>
         <v>0</v>
       </c>
       <c r="S86" s="4">
@@ -6699,8 +7560,18 @@
         <f>AA86/Y85</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="10:29" ht="18" customHeight="1">
+      <c r="AE86" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF86" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG86" s="11">
+        <f>R89+S89+Z89+AA89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="10:33" ht="18" customHeight="1">
       <c r="J87" s="6">
         <v>83</v>
       </c>
@@ -6724,7 +7595,7 @@
         <v>10000</v>
       </c>
       <c r="R87" s="4">
-        <f>P86*C24</f>
+        <f>P86*D23</f>
         <v>0</v>
       </c>
       <c r="S87" s="4">
@@ -6765,8 +7636,18 @@
         <f>AA87/Y86</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="10:29" ht="18" customHeight="1">
+      <c r="AE87" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF87" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG87" s="11">
+        <f>R90+S90+Z90+AA90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="10:33" ht="18" customHeight="1">
       <c r="J88" s="6">
         <v>84</v>
       </c>
@@ -6790,7 +7671,7 @@
         <v>10000</v>
       </c>
       <c r="R88" s="4">
-        <f>P87*C24</f>
+        <f>P87*D23</f>
         <v>0</v>
       </c>
       <c r="S88" s="4">
@@ -6831,8 +7712,18 @@
         <f>AA88/Y87</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="10:29" ht="18" customHeight="1">
+      <c r="AE88" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG88" s="11">
+        <f>R91+S91+Z91+AA91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="10:33" ht="18" customHeight="1">
       <c r="J89" s="6">
         <v>85</v>
       </c>
@@ -6856,7 +7747,7 @@
         <v>10000</v>
       </c>
       <c r="R89" s="4">
-        <f>P88*C24</f>
+        <f>P88*D23</f>
         <v>0</v>
       </c>
       <c r="S89" s="4">
@@ -6897,8 +7788,18 @@
         <f>AA89/Y88</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="10:29" ht="18" customHeight="1">
+      <c r="AE89" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF89" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG89" s="11">
+        <f>R92+S92+Z92+AA92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="10:33" ht="18" customHeight="1">
       <c r="J90" s="6">
         <v>86</v>
       </c>
@@ -6922,7 +7823,7 @@
         <v>10000</v>
       </c>
       <c r="R90" s="4">
-        <f>P89*C24</f>
+        <f>P89*D23</f>
         <v>0</v>
       </c>
       <c r="S90" s="4">
@@ -6963,8 +7864,18 @@
         <f>AA90/Y89</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="10:29" ht="18" customHeight="1">
+      <c r="AE90" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF90" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG90" s="11">
+        <f>R93+S93+Z93+AA93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="10:33" ht="18" customHeight="1">
       <c r="J91" s="6">
         <v>87</v>
       </c>
@@ -6988,7 +7899,7 @@
         <v>10000</v>
       </c>
       <c r="R91" s="4">
-        <f>P90*C24</f>
+        <f>P90*D23</f>
         <v>0</v>
       </c>
       <c r="S91" s="4">
@@ -7029,8 +7940,18 @@
         <f>AA91/Y90</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="10:29" ht="18" customHeight="1">
+      <c r="AE91" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF91" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG91" s="11">
+        <f>R94+S94+Z94+AA94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="10:33" ht="18" customHeight="1">
       <c r="J92" s="6">
         <v>88</v>
       </c>
@@ -7054,7 +7975,7 @@
         <v>10000</v>
       </c>
       <c r="R92" s="4">
-        <f>P91*C24</f>
+        <f>P91*D23</f>
         <v>0</v>
       </c>
       <c r="S92" s="4">
@@ -7095,8 +8016,18 @@
         <f>AA92/Y91</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="10:29" ht="18" customHeight="1">
+      <c r="AE92" s="2">
+        <v>88</v>
+      </c>
+      <c r="AF92" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG92" s="11">
+        <f>R95+S95+Z95+AA95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="10:33" ht="18" customHeight="1">
       <c r="J93" s="6">
         <v>89</v>
       </c>
@@ -7120,7 +8051,7 @@
         <v>10000</v>
       </c>
       <c r="R93" s="4">
-        <f>P92*C24</f>
+        <f>P92*D23</f>
         <v>0</v>
       </c>
       <c r="S93" s="4">
@@ -7161,8 +8092,18 @@
         <f>AA93/Y92</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="10:29" ht="18" customHeight="1">
+      <c r="AE93" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF93" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG93" s="11">
+        <f>R96+S96+Z96+AA96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="10:33" ht="18" customHeight="1">
       <c r="J94" s="6">
         <v>90</v>
       </c>
@@ -7186,7 +8127,7 @@
         <v>10000</v>
       </c>
       <c r="R94" s="4">
-        <f>P93*C24</f>
+        <f>P93*D23</f>
         <v>0</v>
       </c>
       <c r="S94" s="4">
@@ -7227,8 +8168,18 @@
         <f>AA94/Y93</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="10:29" ht="18" customHeight="1">
+      <c r="AE94" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF94" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG94" s="11">
+        <f>R97+S97+Z97+AA97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="10:33" ht="18" customHeight="1">
       <c r="J95" s="6">
         <v>91</v>
       </c>
@@ -7252,7 +8203,7 @@
         <v>10000</v>
       </c>
       <c r="R95" s="4">
-        <f>P94*C24</f>
+        <f>P94*D23</f>
         <v>0</v>
       </c>
       <c r="S95" s="4">
@@ -7293,8 +8244,18 @@
         <f>AA95/Y94</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="10:29" ht="18" customHeight="1">
+      <c r="AE95" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF95" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG95" s="11">
+        <f>R98+S98+Z98+AA98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="10:33" ht="18" customHeight="1">
       <c r="J96" s="6">
         <v>92</v>
       </c>
@@ -7318,7 +8279,7 @@
         <v>10000</v>
       </c>
       <c r="R96" s="4">
-        <f>P95*C24</f>
+        <f>P95*D23</f>
         <v>0</v>
       </c>
       <c r="S96" s="4">
@@ -7359,8 +8320,18 @@
         <f>AA96/Y95</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="10:29" ht="18" customHeight="1">
+      <c r="AE96" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF96" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG96" s="11">
+        <f>R99+S99+Z99+AA99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="10:33" ht="18" customHeight="1">
       <c r="J97" s="6">
         <v>93</v>
       </c>
@@ -7384,7 +8355,7 @@
         <v>10000</v>
       </c>
       <c r="R97" s="4">
-        <f>P96*C24</f>
+        <f>P96*D23</f>
         <v>0</v>
       </c>
       <c r="S97" s="4">
@@ -7425,8 +8396,18 @@
         <f>AA97/Y96</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="10:29" ht="18" customHeight="1">
+      <c r="AE97" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF97" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG97" s="11">
+        <f>R100+S100+Z100+AA100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="10:33" ht="18" customHeight="1">
       <c r="J98" s="6">
         <v>94</v>
       </c>
@@ -7450,7 +8431,7 @@
         <v>10000</v>
       </c>
       <c r="R98" s="4">
-        <f>P97*C24</f>
+        <f>P97*D23</f>
         <v>0</v>
       </c>
       <c r="S98" s="4">
@@ -7491,8 +8472,18 @@
         <f>AA98/Y97</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="10:29" ht="18" customHeight="1">
+      <c r="AE98" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF98" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG98" s="11">
+        <f>R101+S101+Z101+AA101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="10:33" ht="18" customHeight="1">
       <c r="J99" s="6">
         <v>95</v>
       </c>
@@ -7516,7 +8507,7 @@
         <v>10000</v>
       </c>
       <c r="R99" s="4">
-        <f>P98*C24</f>
+        <f>P98*D23</f>
         <v>0</v>
       </c>
       <c r="S99" s="4">
@@ -7557,8 +8548,18 @@
         <f>AA99/Y98</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="10:29" ht="18" customHeight="1">
+      <c r="AE99" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF99" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG99" s="11">
+        <f>R102+S102+Z102+AA102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="10:33" ht="18" customHeight="1">
       <c r="J100" s="6">
         <v>96</v>
       </c>
@@ -7582,7 +8583,7 @@
         <v>10000</v>
       </c>
       <c r="R100" s="4">
-        <f>P99*C24</f>
+        <f>P99*D23</f>
         <v>0</v>
       </c>
       <c r="S100" s="4">
@@ -7623,8 +8624,18 @@
         <f>AA100/Y99</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="10:29" ht="18" customHeight="1">
+      <c r="AE100" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF100" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG100" s="11">
+        <f>R103+S103+Z103+AA103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="10:33" ht="18" customHeight="1">
       <c r="J101" s="6">
         <v>97</v>
       </c>
@@ -7648,7 +8659,7 @@
         <v>10000</v>
       </c>
       <c r="R101" s="4">
-        <f>P100*C24</f>
+        <f>P100*D23</f>
         <v>0</v>
       </c>
       <c r="S101" s="4">
@@ -7689,8 +8700,18 @@
         <f>AA101/Y100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="10:29" ht="18" customHeight="1">
+      <c r="AE101" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF101" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG101" s="11">
+        <f>R104+S104+Z104+AA104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="10:33" ht="18" customHeight="1">
       <c r="J102" s="6">
         <v>98</v>
       </c>
@@ -7714,7 +8735,7 @@
         <v>10000</v>
       </c>
       <c r="R102" s="4">
-        <f>P101*C24</f>
+        <f>P101*D23</f>
         <v>0</v>
       </c>
       <c r="S102" s="4">
@@ -7755,8 +8776,18 @@
         <f>AA102/Y101</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="10:29" ht="18" customHeight="1">
+      <c r="AE102" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF102" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG102" s="11">
+        <f>R105+S105+Z105+AA105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="10:33" ht="18" customHeight="1">
       <c r="J103" s="6">
         <v>99</v>
       </c>
@@ -7780,7 +8811,7 @@
         <v>10000</v>
       </c>
       <c r="R103" s="4">
-        <f>P102*C24</f>
+        <f>P102*D23</f>
         <v>0</v>
       </c>
       <c r="S103" s="4">
@@ -7821,8 +8852,18 @@
         <f>AA103/Y102</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="10:29" ht="18" customHeight="1">
+      <c r="AE103" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF103" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG103" s="11">
+        <f>R106+S106+Z106+AA106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="10:33" ht="18" customHeight="1">
       <c r="J104" s="6">
         <v>100</v>
       </c>
@@ -7846,7 +8887,7 @@
         <v>10000</v>
       </c>
       <c r="R104" s="4">
-        <f>P103*C24</f>
+        <f>P103*D23</f>
         <v>0</v>
       </c>
       <c r="S104" s="4">
@@ -7887,8 +8928,18 @@
         <f>AA104/Y103</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="10:29" ht="18" customHeight="1">
+      <c r="AE104" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF104" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG104" s="11">
+        <f>R107+S107+Z107+AA107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="10:33" ht="18" customHeight="1">
       <c r="J105" s="6">
         <v>101</v>
       </c>
@@ -7912,7 +8963,7 @@
         <v>10000</v>
       </c>
       <c r="R105" s="4">
-        <f>P104*C24</f>
+        <f>P104*D23</f>
         <v>0</v>
       </c>
       <c r="S105" s="4">
@@ -7953,8 +9004,18 @@
         <f>AA105/Y104</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="10:29" ht="18" customHeight="1">
+      <c r="AE105" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF105" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG105" s="11">
+        <f>R108+S108+Z108+AA108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="10:33" ht="18" customHeight="1">
       <c r="J106" s="6">
         <v>102</v>
       </c>
@@ -7978,7 +9039,7 @@
         <v>10000</v>
       </c>
       <c r="R106" s="4">
-        <f>P105*C24</f>
+        <f>P105*D23</f>
         <v>0</v>
       </c>
       <c r="S106" s="4">
@@ -8019,8 +9080,18 @@
         <f>AA106/Y105</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="10:29" ht="18" customHeight="1">
+      <c r="AE106" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF106" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG106" s="11">
+        <f>R109+S109+Z109+AA109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="10:33" ht="18" customHeight="1">
       <c r="J107" s="6">
         <v>103</v>
       </c>
@@ -8044,7 +9115,7 @@
         <v>10000</v>
       </c>
       <c r="R107" s="4">
-        <f>P106*C24</f>
+        <f>P106*D23</f>
         <v>0</v>
       </c>
       <c r="S107" s="4">
@@ -8085,8 +9156,18 @@
         <f>AA107/Y106</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="10:29" ht="18" customHeight="1">
+      <c r="AE107" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF107" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG107" s="11">
+        <f>R110+S110+Z110+AA110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="10:33" ht="18" customHeight="1">
       <c r="J108" s="6">
         <v>104</v>
       </c>
@@ -8110,7 +9191,7 @@
         <v>10000</v>
       </c>
       <c r="R108" s="4">
-        <f>P107*C24</f>
+        <f>P107*D23</f>
         <v>0</v>
       </c>
       <c r="S108" s="4">
@@ -8151,8 +9232,18 @@
         <f>AA108/Y107</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="10:29" ht="18" customHeight="1">
+      <c r="AE108" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF108" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG108" s="11">
+        <f>R111+S111+Z111+AA111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="10:33" ht="18" customHeight="1">
       <c r="J109" s="6">
         <v>105</v>
       </c>
@@ -8176,7 +9267,7 @@
         <v>10000</v>
       </c>
       <c r="R109" s="4">
-        <f>P108*C24</f>
+        <f>P108*D23</f>
         <v>0</v>
       </c>
       <c r="S109" s="4">
@@ -8217,8 +9308,18 @@
         <f>AA109/Y108</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="10:29" ht="18" customHeight="1">
+      <c r="AE109" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF109" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG109" s="11">
+        <f>R112+S112+Z112+AA112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="10:33" ht="18" customHeight="1">
       <c r="J110" s="6">
         <v>106</v>
       </c>
@@ -8242,7 +9343,7 @@
         <v>10000</v>
       </c>
       <c r="R110" s="4">
-        <f>P109*C24</f>
+        <f>P109*D23</f>
         <v>0</v>
       </c>
       <c r="S110" s="4">
@@ -8283,8 +9384,18 @@
         <f>AA110/Y109</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="10:29" ht="18" customHeight="1">
+      <c r="AE110" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF110" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG110" s="11">
+        <f>R113+S113+Z113+AA113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="10:33" ht="18" customHeight="1">
       <c r="J111" s="6">
         <v>107</v>
       </c>
@@ -8308,7 +9419,7 @@
         <v>10000</v>
       </c>
       <c r="R111" s="4">
-        <f>P110*C24</f>
+        <f>P110*D23</f>
         <v>0</v>
       </c>
       <c r="S111" s="4">
@@ -8349,8 +9460,18 @@
         <f>AA111/Y110</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="10:29" ht="18" customHeight="1">
+      <c r="AE111" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF111" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG111" s="11">
+        <f>R114+S114+Z114+AA114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="10:33" ht="18" customHeight="1">
       <c r="J112" s="6">
         <v>108</v>
       </c>
@@ -8374,7 +9495,7 @@
         <v>10000</v>
       </c>
       <c r="R112" s="4">
-        <f>P111*C24</f>
+        <f>P111*D23</f>
         <v>0</v>
       </c>
       <c r="S112" s="4">
@@ -8415,8 +9536,18 @@
         <f>AA112/Y111</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="10:29" ht="18" customHeight="1">
+      <c r="AE112" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF112" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG112" s="11">
+        <f>R115+S115+Z115+AA115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="10:33" ht="18" customHeight="1">
       <c r="J113" s="6">
         <v>109</v>
       </c>
@@ -8440,7 +9571,7 @@
         <v>10000</v>
       </c>
       <c r="R113" s="4">
-        <f>P112*C24</f>
+        <f>P112*D23</f>
         <v>0</v>
       </c>
       <c r="S113" s="4">
@@ -8481,8 +9612,18 @@
         <f>AA113/Y112</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="10:29" ht="18" customHeight="1">
+      <c r="AE113" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF113" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG113" s="11">
+        <f>R116+S116+Z116+AA116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="10:33" ht="18" customHeight="1">
       <c r="J114" s="6">
         <v>110</v>
       </c>
@@ -8506,7 +9647,7 @@
         <v>10000</v>
       </c>
       <c r="R114" s="4">
-        <f>P113*C24</f>
+        <f>P113*D23</f>
         <v>0</v>
       </c>
       <c r="S114" s="4">
@@ -8547,8 +9688,18 @@
         <f>AA114/Y113</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="10:29" ht="18" customHeight="1">
+      <c r="AE114" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF114" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG114" s="11">
+        <f>R117+S117+Z117+AA117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="10:33" ht="18" customHeight="1">
       <c r="J115" s="6">
         <v>111</v>
       </c>
@@ -8572,7 +9723,7 @@
         <v>10000</v>
       </c>
       <c r="R115" s="4">
-        <f>P114*C24</f>
+        <f>P114*D23</f>
         <v>0</v>
       </c>
       <c r="S115" s="4">
@@ -8613,8 +9764,18 @@
         <f>AA115/Y114</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="10:29" ht="18" customHeight="1">
+      <c r="AE115" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF115" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG115" s="11">
+        <f>R118+S118+Z118+AA118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="10:33" ht="18" customHeight="1">
       <c r="J116" s="6">
         <v>112</v>
       </c>
@@ -8638,7 +9799,7 @@
         <v>10000</v>
       </c>
       <c r="R116" s="4">
-        <f>P115*C24</f>
+        <f>P115*D23</f>
         <v>0</v>
       </c>
       <c r="S116" s="4">
@@ -8679,8 +9840,18 @@
         <f>AA116/Y115</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="10:29" ht="18" customHeight="1">
+      <c r="AE116" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF116" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG116" s="11">
+        <f>R119+S119+Z119+AA119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="10:33" ht="18" customHeight="1">
       <c r="J117" s="6">
         <v>113</v>
       </c>
@@ -8704,7 +9875,7 @@
         <v>10000</v>
       </c>
       <c r="R117" s="4">
-        <f>P116*C24</f>
+        <f>P116*D23</f>
         <v>0</v>
       </c>
       <c r="S117" s="4">
@@ -8745,8 +9916,18 @@
         <f>AA117/Y116</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="10:29" ht="18" customHeight="1">
+      <c r="AE117" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF117" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG117" s="11">
+        <f>R120+S120+Z120+AA120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="10:33" ht="18" customHeight="1">
       <c r="J118" s="6">
         <v>114</v>
       </c>
@@ -8770,7 +9951,7 @@
         <v>10000</v>
       </c>
       <c r="R118" s="4">
-        <f>P117*C24</f>
+        <f>P117*D23</f>
         <v>0</v>
       </c>
       <c r="S118" s="4">
@@ -8811,8 +9992,18 @@
         <f>AA118/Y117</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="10:29" ht="18" customHeight="1">
+      <c r="AE118" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF118" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG118" s="11">
+        <f>R121+S121+Z121+AA121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="10:33" ht="18" customHeight="1">
       <c r="J119" s="6">
         <v>115</v>
       </c>
@@ -8836,7 +10027,7 @@
         <v>10000</v>
       </c>
       <c r="R119" s="4">
-        <f>P118*C24</f>
+        <f>P118*D23</f>
         <v>0</v>
       </c>
       <c r="S119" s="4">
@@ -8877,8 +10068,18 @@
         <f>AA119/Y118</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="10:29" ht="18" customHeight="1">
+      <c r="AE119" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF119" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG119" s="11">
+        <f>R122+S122+Z122+AA122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="10:33" ht="18" customHeight="1">
       <c r="J120" s="6">
         <v>116</v>
       </c>
@@ -8902,7 +10103,7 @@
         <v>10000</v>
       </c>
       <c r="R120" s="4">
-        <f>P119*C24</f>
+        <f>P119*D23</f>
         <v>0</v>
       </c>
       <c r="S120" s="4">
@@ -8943,8 +10144,18 @@
         <f>AA120/Y119</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="10:29" ht="18" customHeight="1">
+      <c r="AE120" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF120" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG120" s="11">
+        <f>R123+S123+Z123+AA123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="10:33" ht="18" customHeight="1">
       <c r="J121" s="6">
         <v>117</v>
       </c>
@@ -8968,7 +10179,7 @@
         <v>10000</v>
       </c>
       <c r="R121" s="4">
-        <f>P120*C24</f>
+        <f>P120*D23</f>
         <v>0</v>
       </c>
       <c r="S121" s="4">
@@ -9009,8 +10220,18 @@
         <f>AA121/Y120</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="10:29" ht="18" customHeight="1">
+      <c r="AE121" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF121" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG121" s="11">
+        <f>R124+S124+Z124+AA124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="10:33" ht="18" customHeight="1">
       <c r="J122" s="6">
         <v>118</v>
       </c>
@@ -9034,7 +10255,7 @@
         <v>10000</v>
       </c>
       <c r="R122" s="4">
-        <f>P121*C24</f>
+        <f>P121*D23</f>
         <v>0</v>
       </c>
       <c r="S122" s="4">
@@ -9075,8 +10296,18 @@
         <f>AA122/Y121</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="10:29" ht="18" customHeight="1">
+      <c r="AE122" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF122" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG122" s="11">
+        <f>R125+S125+Z125+AA125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="10:33" ht="18" customHeight="1">
       <c r="J123" s="6">
         <v>119</v>
       </c>
@@ -9100,7 +10331,7 @@
         <v>10000</v>
       </c>
       <c r="R123" s="4">
-        <f>P122*C24</f>
+        <f>P122*D23</f>
         <v>0</v>
       </c>
       <c r="S123" s="4">
@@ -9141,8 +10372,18 @@
         <f>AA123/Y122</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="10:29" ht="18" customHeight="1">
+      <c r="AE123" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF123" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG123" s="11">
+        <f>R126+S126+Z126+AA126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="10:33" ht="18" customHeight="1">
       <c r="J124" s="6">
         <v>120</v>
       </c>
@@ -9166,7 +10407,7 @@
         <v>10000</v>
       </c>
       <c r="R124" s="4">
-        <f>P123*C24</f>
+        <f>P123*D23</f>
         <v>0</v>
       </c>
       <c r="S124" s="4">
@@ -9207,8 +10448,18 @@
         <f>AA124/Y123</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="10:29" ht="18" customHeight="1">
+      <c r="AE124" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF124" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG124" s="11">
+        <f>R127+S127+Z127+AA127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="10:33" ht="18" customHeight="1">
       <c r="J125" s="6">
         <v>121</v>
       </c>
@@ -9232,7 +10483,7 @@
         <v>10000</v>
       </c>
       <c r="R125" s="4">
-        <f>P124*C24</f>
+        <f>P124*D23</f>
         <v>0</v>
       </c>
       <c r="S125" s="4">
@@ -9273,8 +10524,18 @@
         <f>AA125/Y124</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="10:29" ht="18" customHeight="1">
+      <c r="AE125" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF125" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG125" s="11">
+        <f>R128+S128+Z128+AA128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="10:33" ht="18" customHeight="1">
       <c r="J126" s="6">
         <v>122</v>
       </c>
@@ -9298,7 +10559,7 @@
         <v>10000</v>
       </c>
       <c r="R126" s="4">
-        <f>P125*C24</f>
+        <f>P125*D23</f>
         <v>0</v>
       </c>
       <c r="S126" s="4">
@@ -9339,8 +10600,18 @@
         <f>AA126/Y125</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="10:29" ht="18" customHeight="1">
+      <c r="AE126" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF126" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG126" s="11">
+        <f>R129+S129+Z129+AA129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="10:33" ht="18" customHeight="1">
       <c r="J127" s="6">
         <v>123</v>
       </c>
@@ -9364,7 +10635,7 @@
         <v>10000</v>
       </c>
       <c r="R127" s="4">
-        <f>P126*C24</f>
+        <f>P126*D23</f>
         <v>0</v>
       </c>
       <c r="S127" s="4">
@@ -9405,8 +10676,18 @@
         <f>AA127/Y126</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="10:29" ht="18" customHeight="1">
+      <c r="AE127" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF127" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG127" s="11">
+        <f>R130+S130+Z130+AA130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="10:33" ht="18" customHeight="1">
       <c r="J128" s="6">
         <v>124</v>
       </c>
@@ -9430,7 +10711,7 @@
         <v>10000</v>
       </c>
       <c r="R128" s="4">
-        <f>P127*C24</f>
+        <f>P127*D23</f>
         <v>0</v>
       </c>
       <c r="S128" s="4">
@@ -9471,8 +10752,18 @@
         <f>AA128/Y127</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="10:29" ht="18" customHeight="1">
+      <c r="AE128" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF128" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG128" s="11">
+        <f>R131+S131+Z131+AA131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="10:33" ht="18" customHeight="1">
       <c r="J129" s="6">
         <v>125</v>
       </c>
@@ -9496,7 +10787,7 @@
         <v>10000</v>
       </c>
       <c r="R129" s="4">
-        <f>P128*C24</f>
+        <f>P128*D23</f>
         <v>0</v>
       </c>
       <c r="S129" s="4">
@@ -9537,8 +10828,18 @@
         <f>AA129/Y128</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="10:29" ht="18" customHeight="1">
+      <c r="AE129" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF129" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG129" s="11">
+        <f>R132+S132+Z132+AA132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="10:33" ht="18" customHeight="1">
       <c r="J130" s="6">
         <v>126</v>
       </c>
@@ -9562,7 +10863,7 @@
         <v>10000</v>
       </c>
       <c r="R130" s="4">
-        <f>P129*C24</f>
+        <f>P129*D23</f>
         <v>0</v>
       </c>
       <c r="S130" s="4">
@@ -9603,8 +10904,18 @@
         <f>AA130/Y129</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="10:29" ht="18" customHeight="1">
+      <c r="AE130" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF130" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG130" s="11">
+        <f>R133+S133+Z133+AA133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="10:33" ht="18" customHeight="1">
       <c r="J131" s="6">
         <v>127</v>
       </c>
@@ -9628,7 +10939,7 @@
         <v>10000</v>
       </c>
       <c r="R131" s="4">
-        <f>P130*C24</f>
+        <f>P130*D23</f>
         <v>0</v>
       </c>
       <c r="S131" s="4">
@@ -9669,8 +10980,18 @@
         <f>AA131/Y130</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="10:29" ht="18" customHeight="1">
+      <c r="AE131" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF131" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG131" s="11">
+        <f>R134+S134+Z134+AA134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="10:33" ht="18" customHeight="1">
       <c r="J132" s="6">
         <v>128</v>
       </c>
@@ -9694,7 +11015,7 @@
         <v>10000</v>
       </c>
       <c r="R132" s="4">
-        <f>P131*C24</f>
+        <f>P131*D23</f>
         <v>0</v>
       </c>
       <c r="S132" s="4">
@@ -9735,8 +11056,18 @@
         <f>AA132/Y131</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="10:29" ht="18" customHeight="1">
+      <c r="AE132" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF132" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG132" s="11">
+        <f>R135+S135+Z135+AA135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="10:33" ht="18" customHeight="1">
       <c r="J133" s="6">
         <v>129</v>
       </c>
@@ -9760,7 +11091,7 @@
         <v>10000</v>
       </c>
       <c r="R133" s="4">
-        <f>P132*C24</f>
+        <f>P132*D23</f>
         <v>0</v>
       </c>
       <c r="S133" s="4">
@@ -9801,8 +11132,18 @@
         <f>AA133/Y132</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="10:29" ht="18" customHeight="1">
+      <c r="AE133" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF133" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG133" s="11">
+        <f>R136+S136+Z136+AA136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="10:33" ht="18" customHeight="1">
       <c r="J134" s="6">
         <v>130</v>
       </c>
@@ -9826,7 +11167,7 @@
         <v>10000</v>
       </c>
       <c r="R134" s="4">
-        <f>P133*C24</f>
+        <f>P133*D23</f>
         <v>0</v>
       </c>
       <c r="S134" s="4">
@@ -9867,8 +11208,18 @@
         <f>AA134/Y133</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="10:29" ht="18" customHeight="1">
+      <c r="AE134" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF134" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG134" s="11">
+        <f>R137+S137+Z137+AA137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="10:33" ht="18" customHeight="1">
       <c r="J135" s="6">
         <v>131</v>
       </c>
@@ -9892,7 +11243,7 @@
         <v>10000</v>
       </c>
       <c r="R135" s="4">
-        <f>P134*C24</f>
+        <f>P134*D23</f>
         <v>0</v>
       </c>
       <c r="S135" s="4">
@@ -9933,8 +11284,18 @@
         <f>AA135/Y134</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="10:29" ht="18" customHeight="1">
+      <c r="AE135" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF135" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG135" s="11">
+        <f>R138+S138+Z138+AA138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="10:33" ht="18" customHeight="1">
       <c r="J136" s="6">
         <v>132</v>
       </c>
@@ -9958,7 +11319,7 @@
         <v>10000</v>
       </c>
       <c r="R136" s="4">
-        <f>P135*C24</f>
+        <f>P135*D23</f>
         <v>0</v>
       </c>
       <c r="S136" s="4">
@@ -9999,8 +11360,18 @@
         <f>AA136/Y135</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="10:29" ht="18" customHeight="1">
+      <c r="AE136" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF136" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG136" s="11">
+        <f>R139+S139+Z139+AA139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="10:33" ht="18" customHeight="1">
       <c r="J137" s="6">
         <v>133</v>
       </c>
@@ -10024,7 +11395,7 @@
         <v>10000</v>
       </c>
       <c r="R137" s="4">
-        <f>P136*C24</f>
+        <f>P136*D23</f>
         <v>0</v>
       </c>
       <c r="S137" s="4">
@@ -10065,8 +11436,18 @@
         <f>AA137/Y136</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="10:29" ht="18" customHeight="1">
+      <c r="AE137" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF137" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG137" s="11">
+        <f>R140+S140+Z140+AA140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="10:33" ht="18" customHeight="1">
       <c r="J138" s="6">
         <v>134</v>
       </c>
@@ -10090,7 +11471,7 @@
         <v>10000</v>
       </c>
       <c r="R138" s="4">
-        <f>P137*C24</f>
+        <f>P137*D23</f>
         <v>0</v>
       </c>
       <c r="S138" s="4">
@@ -10131,8 +11512,18 @@
         <f>AA138/Y137</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="10:29" ht="18" customHeight="1">
+      <c r="AE138" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF138" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG138" s="11">
+        <f>R141+S141+Z141+AA141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="10:33" ht="18" customHeight="1">
       <c r="J139" s="6">
         <v>135</v>
       </c>
@@ -10156,7 +11547,7 @@
         <v>10000</v>
       </c>
       <c r="R139" s="4">
-        <f>P138*C24</f>
+        <f>P138*D23</f>
         <v>0</v>
       </c>
       <c r="S139" s="4">
@@ -10197,8 +11588,18 @@
         <f>AA139/Y138</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="10:29" ht="18" customHeight="1">
+      <c r="AE139" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF139" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG139" s="11">
+        <f>R142+S142+Z142+AA142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="10:33" ht="18" customHeight="1">
       <c r="J140" s="6">
         <v>136</v>
       </c>
@@ -10222,7 +11623,7 @@
         <v>10000</v>
       </c>
       <c r="R140" s="4">
-        <f>P139*C24</f>
+        <f>P139*D23</f>
         <v>0</v>
       </c>
       <c r="S140" s="4">
@@ -10237,34 +11638,44 @@
         <f>S140/P139</f>
         <v>0</v>
       </c>
-      <c r="W140" s="20">
+      <c r="W140" s="21">
         <v>133</v>
       </c>
-      <c r="X140" s="21" t="s">
+      <c r="X140" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="Y140" s="22">
+      <c r="Y140" s="23">
         <f>Y139+Z140-AB140</f>
         <v>0</v>
       </c>
-      <c r="Z140" s="22">
+      <c r="Z140" s="23">
         <f>Y139*C23</f>
         <v>0</v>
       </c>
-      <c r="AA140" s="22">
+      <c r="AA140" s="23">
         <f>Y139</f>
         <v>0</v>
       </c>
-      <c r="AB140" s="22">
+      <c r="AB140" s="23">
         <f>Z140+AA140</f>
         <v>0</v>
       </c>
-      <c r="AC140" s="23">
+      <c r="AC140" s="24">
         <f>AA140/Y139</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="10:29" ht="18" customHeight="1">
+      <c r="AE140" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF140" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG140" s="11">
+        <f>R143+S143+Z143+AA143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="10:33" ht="18" customHeight="1">
       <c r="J141" s="6">
         <v>137</v>
       </c>
@@ -10288,7 +11699,7 @@
         <v>10000</v>
       </c>
       <c r="R141" s="4">
-        <f>P140*C24</f>
+        <f>P140*D23</f>
         <v>0</v>
       </c>
       <c r="S141" s="4">
@@ -10303,8 +11714,18 @@
         <f>S141/P140</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="10:29" ht="18" customHeight="1">
+      <c r="AE141" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF141" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG141" s="11">
+        <f>R144+S144+Z144+AA144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="10:33" ht="18" customHeight="1">
       <c r="J142" s="6">
         <v>138</v>
       </c>
@@ -10328,7 +11749,7 @@
         <v>10000</v>
       </c>
       <c r="R142" s="4">
-        <f>P141*C24</f>
+        <f>P141*D23</f>
         <v>0</v>
       </c>
       <c r="S142" s="4">
@@ -10343,8 +11764,18 @@
         <f>S142/P141</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="10:29" ht="18" customHeight="1">
+      <c r="AE142" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG142" s="11">
+        <f>R145+S145+Z145+AA145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="10:33" ht="18" customHeight="1">
       <c r="J143" s="6">
         <v>139</v>
       </c>
@@ -10368,7 +11799,7 @@
         <v>10000</v>
       </c>
       <c r="R143" s="4">
-        <f>P142*C24</f>
+        <f>P142*D23</f>
         <v>0</v>
       </c>
       <c r="S143" s="4">
@@ -10383,8 +11814,18 @@
         <f>S143/P142</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="10:29" ht="18" customHeight="1">
+      <c r="AE143" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF143" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG143" s="11">
+        <f>R146+S146+Z146+AA146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="10:33" ht="18" customHeight="1">
       <c r="J144" s="6">
         <v>140</v>
       </c>
@@ -10408,7 +11849,7 @@
         <v>10000</v>
       </c>
       <c r="R144" s="4">
-        <f>P143*C24</f>
+        <f>P143*D23</f>
         <v>0</v>
       </c>
       <c r="S144" s="4">
@@ -10423,8 +11864,18 @@
         <f>S144/P143</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="10:21" ht="18" customHeight="1">
+      <c r="AE144" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF144" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG144" s="11">
+        <f>R147+S147+Z147+AA147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="10:33" ht="18" customHeight="1">
       <c r="J145" s="6">
         <v>141</v>
       </c>
@@ -10448,7 +11899,7 @@
         <v>10000</v>
       </c>
       <c r="R145" s="4">
-        <f>P144*C24</f>
+        <f>P144*D23</f>
         <v>0</v>
       </c>
       <c r="S145" s="4">
@@ -10463,8 +11914,18 @@
         <f>S145/P144</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="10:21" ht="18" customHeight="1">
+      <c r="AE145" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF145" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG145" s="11">
+        <f>R148+S148+Z148+AA148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="10:33" ht="18" customHeight="1">
       <c r="J146" s="6">
         <v>142</v>
       </c>
@@ -10488,7 +11949,7 @@
         <v>10000</v>
       </c>
       <c r="R146" s="4">
-        <f>P145*C24</f>
+        <f>P145*D23</f>
         <v>0</v>
       </c>
       <c r="S146" s="4">
@@ -10503,8 +11964,18 @@
         <f>S146/P145</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="10:21" ht="18" customHeight="1">
+      <c r="AE146" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF146" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG146" s="11">
+        <f>R149+S149+Z149+AA149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="10:33" ht="18" customHeight="1">
       <c r="J147" s="6">
         <v>143</v>
       </c>
@@ -10528,7 +11999,7 @@
         <v>10000</v>
       </c>
       <c r="R147" s="4">
-        <f>P146*C24</f>
+        <f>P146*D23</f>
         <v>0</v>
       </c>
       <c r="S147" s="4">
@@ -10543,8 +12014,18 @@
         <f>S147/P146</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="10:21" ht="18" customHeight="1">
+      <c r="AE147" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF147" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG147" s="11">
+        <f>R150+S150+Z150+AA150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="10:33" ht="18" customHeight="1">
       <c r="J148" s="6">
         <v>144</v>
       </c>
@@ -10568,7 +12049,7 @@
         <v>10000</v>
       </c>
       <c r="R148" s="4">
-        <f>P147*C24</f>
+        <f>P147*D23</f>
         <v>0</v>
       </c>
       <c r="S148" s="4">
@@ -10583,8 +12064,18 @@
         <f>S148/P147</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="10:21" ht="18" customHeight="1">
+      <c r="AE148" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF148" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG148" s="11">
+        <f>R151+S151+Z151+AA151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="10:33" ht="18" customHeight="1">
       <c r="J149" s="6">
         <v>145</v>
       </c>
@@ -10608,7 +12099,7 @@
         <v>10000</v>
       </c>
       <c r="R149" s="4">
-        <f>P148*C24</f>
+        <f>P148*D23</f>
         <v>0</v>
       </c>
       <c r="S149" s="4">
@@ -10623,8 +12114,18 @@
         <f>S149/P148</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="10:21" ht="18" customHeight="1">
+      <c r="AE149" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF149" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG149" s="11">
+        <f>R152+S152+Z152+AA152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="10:33" ht="18" customHeight="1">
       <c r="J150" s="6">
         <v>146</v>
       </c>
@@ -10648,7 +12149,7 @@
         <v>10000</v>
       </c>
       <c r="R150" s="4">
-        <f>P149*C24</f>
+        <f>P149*D23</f>
         <v>0</v>
       </c>
       <c r="S150" s="4">
@@ -10663,8 +12164,18 @@
         <f>S150/P149</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="10:21" ht="18" customHeight="1">
+      <c r="AE150" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF150" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG150" s="11">
+        <f>R153+S153+Z153+AA153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="10:33" ht="18" customHeight="1">
       <c r="J151" s="6">
         <v>147</v>
       </c>
@@ -10688,7 +12199,7 @@
         <v>10000</v>
       </c>
       <c r="R151" s="4">
-        <f>P150*C24</f>
+        <f>P150*D23</f>
         <v>0</v>
       </c>
       <c r="S151" s="4">
@@ -10703,8 +12214,18 @@
         <f>S151/P150</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="10:21" ht="18" customHeight="1">
+      <c r="AE151" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF151" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG151" s="11">
+        <f>R154+S154+Z154+AA154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="10:33" ht="18" customHeight="1">
       <c r="J152" s="6">
         <v>148</v>
       </c>
@@ -10728,7 +12249,7 @@
         <v>10000</v>
       </c>
       <c r="R152" s="4">
-        <f>P151*C24</f>
+        <f>P151*D23</f>
         <v>0</v>
       </c>
       <c r="S152" s="4">
@@ -10743,8 +12264,18 @@
         <f>S152/P151</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="10:21" ht="18" customHeight="1">
+      <c r="AE152" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF152" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG152" s="11">
+        <f>R155+S155+Z155+AA155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="10:33" ht="18" customHeight="1">
       <c r="J153" s="6">
         <v>149</v>
       </c>
@@ -10768,7 +12299,7 @@
         <v>10000</v>
       </c>
       <c r="R153" s="4">
-        <f>P152*C24</f>
+        <f>P152*D23</f>
         <v>0</v>
       </c>
       <c r="S153" s="4">
@@ -10783,8 +12314,18 @@
         <f>S153/P152</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="10:21" ht="18" customHeight="1">
+      <c r="AE153" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF153" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG153" s="11">
+        <f>R156+S156+Z156+AA156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="10:33" ht="18" customHeight="1">
       <c r="J154" s="6">
         <v>150</v>
       </c>
@@ -10808,7 +12349,7 @@
         <v>10000</v>
       </c>
       <c r="R154" s="4">
-        <f>P153*C24</f>
+        <f>P153*D23</f>
         <v>0</v>
       </c>
       <c r="S154" s="4">
@@ -10823,8 +12364,18 @@
         <f>S154/P153</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="10:21" ht="18" customHeight="1">
+      <c r="AE154" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF154" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG154" s="11">
+        <f>R157+S157+Z157+AA157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="10:33" ht="18" customHeight="1">
       <c r="J155" s="6">
         <v>151</v>
       </c>
@@ -10848,7 +12399,7 @@
         <v>10000</v>
       </c>
       <c r="R155" s="4">
-        <f>P154*C24</f>
+        <f>P154*D23</f>
         <v>0</v>
       </c>
       <c r="S155" s="4">
@@ -10863,8 +12414,18 @@
         <f>S155/P154</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="10:21" ht="18" customHeight="1">
+      <c r="AE155" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF155" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG155" s="11">
+        <f>R158+S158+Z158+AA158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="10:33" ht="18" customHeight="1">
       <c r="J156" s="6">
         <v>152</v>
       </c>
@@ -10888,7 +12449,7 @@
         <v>10000</v>
       </c>
       <c r="R156" s="4">
-        <f>P155*C24</f>
+        <f>P155*D23</f>
         <v>0</v>
       </c>
       <c r="S156" s="4">
@@ -10903,8 +12464,18 @@
         <f>S156/P155</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="10:21" ht="18" customHeight="1">
+      <c r="AE156" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF156" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG156" s="11">
+        <f>R159+S159+Z159+AA159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="10:33" ht="18" customHeight="1">
       <c r="J157" s="6">
         <v>153</v>
       </c>
@@ -10928,7 +12499,7 @@
         <v>10000</v>
       </c>
       <c r="R157" s="4">
-        <f>P156*C24</f>
+        <f>P156*D23</f>
         <v>0</v>
       </c>
       <c r="S157" s="4">
@@ -10943,8 +12514,18 @@
         <f>S157/P156</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="10:21" ht="18" customHeight="1">
+      <c r="AE157" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF157" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG157" s="11">
+        <f>R160+S160+Z160+AA160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="10:33" ht="18" customHeight="1">
       <c r="J158" s="6">
         <v>154</v>
       </c>
@@ -10968,7 +12549,7 @@
         <v>10000</v>
       </c>
       <c r="R158" s="4">
-        <f>P157*C24</f>
+        <f>P157*D23</f>
         <v>0</v>
       </c>
       <c r="S158" s="4">
@@ -10983,8 +12564,18 @@
         <f>S158/P157</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="10:21" ht="18" customHeight="1">
+      <c r="AE158" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF158" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG158" s="11">
+        <f>R161+S161+Z161+AA161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="10:33" ht="18" customHeight="1">
       <c r="J159" s="6">
         <v>155</v>
       </c>
@@ -11008,7 +12599,7 @@
         <v>10000</v>
       </c>
       <c r="R159" s="4">
-        <f>P158*C24</f>
+        <f>P158*D23</f>
         <v>0</v>
       </c>
       <c r="S159" s="4">
@@ -11023,8 +12614,18 @@
         <f>S159/P158</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="10:21" ht="18" customHeight="1">
+      <c r="AE159" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF159" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG159" s="11">
+        <f>R162+S162+Z162+AA162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="10:33" ht="18" customHeight="1">
       <c r="J160" s="6">
         <v>156</v>
       </c>
@@ -11048,7 +12649,7 @@
         <v>10000</v>
       </c>
       <c r="R160" s="4">
-        <f>P159*C24</f>
+        <f>P159*D23</f>
         <v>0</v>
       </c>
       <c r="S160" s="4">
@@ -11063,8 +12664,18 @@
         <f>S160/P159</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="10:21" ht="18" customHeight="1">
+      <c r="AE160" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF160" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG160" s="11">
+        <f>R163+S163+Z163+AA163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="10:33" ht="18" customHeight="1">
       <c r="J161" s="6">
         <v>157</v>
       </c>
@@ -11088,7 +12699,7 @@
         <v>10000</v>
       </c>
       <c r="R161" s="4">
-        <f>P160*C24</f>
+        <f>P160*D23</f>
         <v>0</v>
       </c>
       <c r="S161" s="4">
@@ -11103,8 +12714,18 @@
         <f>S161/P160</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="10:21" ht="18" customHeight="1">
+      <c r="AE161" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF161" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG161" s="11">
+        <f>R164+S164+Z164+AA164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="10:33" ht="18" customHeight="1">
       <c r="J162" s="6">
         <v>158</v>
       </c>
@@ -11128,7 +12749,7 @@
         <v>10000</v>
       </c>
       <c r="R162" s="4">
-        <f>P161*C24</f>
+        <f>P161*D23</f>
         <v>0</v>
       </c>
       <c r="S162" s="4">
@@ -11143,8 +12764,18 @@
         <f>S162/P161</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="10:21" ht="18" customHeight="1">
+      <c r="AE162" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF162" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG162" s="11">
+        <f>R165+S165+Z165+AA165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="10:33" ht="18" customHeight="1">
       <c r="J163" s="6">
         <v>159</v>
       </c>
@@ -11168,7 +12799,7 @@
         <v>10000</v>
       </c>
       <c r="R163" s="4">
-        <f>P162*C24</f>
+        <f>P162*D23</f>
         <v>0</v>
       </c>
       <c r="S163" s="4">
@@ -11183,8 +12814,18 @@
         <f>S163/P162</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="10:21" ht="18" customHeight="1">
+      <c r="AE163" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF163" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG163" s="11">
+        <f>R166+S166+Z166+AA166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="10:33" ht="18" customHeight="1">
       <c r="J164" s="6">
         <v>160</v>
       </c>
@@ -11208,7 +12849,7 @@
         <v>10000</v>
       </c>
       <c r="R164" s="4">
-        <f>P163*C24</f>
+        <f>P163*D23</f>
         <v>0</v>
       </c>
       <c r="S164" s="4">
@@ -11223,8 +12864,18 @@
         <f>S164/P163</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="10:21" ht="18" customHeight="1">
+      <c r="AE164" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF164" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG164" s="11">
+        <f>R167+S167+Z167+AA167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="10:33" ht="18" customHeight="1">
       <c r="J165" s="6">
         <v>161</v>
       </c>
@@ -11248,7 +12899,7 @@
         <v>10000</v>
       </c>
       <c r="R165" s="4">
-        <f>P164*C24</f>
+        <f>P164*D23</f>
         <v>0</v>
       </c>
       <c r="S165" s="4">
@@ -11263,8 +12914,18 @@
         <f>S165/P164</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="10:21" ht="18" customHeight="1">
+      <c r="AE165" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF165" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG165" s="11">
+        <f>R168+S168+Z168+AA168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="10:33" ht="18" customHeight="1">
       <c r="J166" s="6">
         <v>162</v>
       </c>
@@ -11288,7 +12949,7 @@
         <v>10000</v>
       </c>
       <c r="R166" s="4">
-        <f>P165*C24</f>
+        <f>P165*D23</f>
         <v>0</v>
       </c>
       <c r="S166" s="4">
@@ -11303,8 +12964,18 @@
         <f>S166/P165</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="10:21" ht="18" customHeight="1">
+      <c r="AE166" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF166" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG166" s="11">
+        <f>R169+S169+Z169+AA169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="10:33" ht="18" customHeight="1">
       <c r="J167" s="6">
         <v>163</v>
       </c>
@@ -11328,7 +12999,7 @@
         <v>10000</v>
       </c>
       <c r="R167" s="4">
-        <f>P166*C24</f>
+        <f>P166*D23</f>
         <v>0</v>
       </c>
       <c r="S167" s="4">
@@ -11343,8 +13014,18 @@
         <f>S167/P166</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="10:21" ht="18" customHeight="1">
+      <c r="AE167" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF167" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG167" s="11">
+        <f>R170+S170+Z170+AA170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="10:33" ht="18" customHeight="1">
       <c r="J168" s="6">
         <v>164</v>
       </c>
@@ -11368,7 +13049,7 @@
         <v>10000</v>
       </c>
       <c r="R168" s="4">
-        <f>P167*C24</f>
+        <f>P167*D23</f>
         <v>0</v>
       </c>
       <c r="S168" s="4">
@@ -11383,8 +13064,18 @@
         <f>S168/P167</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="10:21" ht="18" customHeight="1">
+      <c r="AE168" s="21">
+        <v>164</v>
+      </c>
+      <c r="AF168" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG168" s="25">
+        <f>R171+S171+Z171+AA171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="10:33" ht="18" customHeight="1">
       <c r="J169" s="6">
         <v>165</v>
       </c>
@@ -11408,7 +13099,7 @@
         <v>10000</v>
       </c>
       <c r="R169" s="4">
-        <f>P168*C24</f>
+        <f>P168*D23</f>
         <v>0</v>
       </c>
       <c r="S169" s="4">
@@ -11424,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="10:21" ht="18" customHeight="1">
+    <row r="170" spans="10:33" ht="18" customHeight="1">
       <c r="J170" s="6">
         <v>166</v>
       </c>
@@ -11448,7 +13139,7 @@
         <v>10000</v>
       </c>
       <c r="R170" s="4">
-        <f>P169*C24</f>
+        <f>P169*D23</f>
         <v>0</v>
       </c>
       <c r="S170" s="4">
@@ -11464,7 +13155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="10:21" ht="18" customHeight="1">
+    <row r="171" spans="10:33" ht="18" customHeight="1">
       <c r="J171" s="6">
         <v>167</v>
       </c>
@@ -11474,37 +13165,37 @@
       <c r="L171" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="N171" s="20">
+      <c r="N171" s="21">
         <v>164</v>
       </c>
-      <c r="O171" s="21" t="s">
+      <c r="O171" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="P171" s="22">
+      <c r="P171" s="23">
         <f>P170+Q171+R171-T171</f>
         <v>0</v>
       </c>
-      <c r="Q171" s="22">
-        <v>10000</v>
-      </c>
-      <c r="R171" s="22">
-        <f>P170*C24</f>
-        <v>0</v>
-      </c>
-      <c r="S171" s="22">
+      <c r="Q171" s="23">
+        <v>10000</v>
+      </c>
+      <c r="R171" s="23">
+        <f>P170*D23</f>
+        <v>0</v>
+      </c>
+      <c r="S171" s="23">
         <f>P170</f>
         <v>0</v>
       </c>
-      <c r="T171" s="22">
+      <c r="T171" s="23">
         <f>Q171+R171+S171</f>
         <v>0</v>
       </c>
-      <c r="U171" s="23">
+      <c r="U171" s="24">
         <f>S171/P170</f>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="10:21" ht="18" customHeight="1">
+    <row r="172" spans="10:33" ht="18" customHeight="1">
       <c r="J172" s="6">
         <v>168</v>
       </c>
@@ -11515,7 +13206,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" spans="10:21" ht="18" customHeight="1">
+    <row r="173" spans="10:33" ht="18" customHeight="1">
       <c r="J173" s="6">
         <v>169</v>
       </c>
@@ -11526,7 +13217,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="174" spans="10:21" ht="18" customHeight="1">
+    <row r="174" spans="10:33" ht="18" customHeight="1">
       <c r="J174" s="6">
         <v>170</v>
       </c>
@@ -11537,7 +13228,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="175" spans="10:21" ht="18" customHeight="1">
+    <row r="175" spans="10:33" ht="18" customHeight="1">
       <c r="J175" s="6">
         <v>171</v>
       </c>
@@ -11548,7 +13239,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="10:21" ht="18" customHeight="1">
+    <row r="176" spans="10:33" ht="18" customHeight="1">
       <c r="J176" s="6">
         <v>172</v>
       </c>
@@ -11626,21 +13317,22 @@
       </c>
     </row>
     <row r="183" spans="10:12" ht="18" customHeight="1">
-      <c r="J183" s="24">
+      <c r="J183" s="26">
         <v>179</v>
       </c>
-      <c r="K183" s="25">
+      <c r="K183" s="27">
         <v>2552.49</v>
       </c>
-      <c r="L183" s="26" t="s">
+      <c r="L183" s="28" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="J3:L4"/>
     <mergeCell ref="N3:U4"/>
     <mergeCell ref="W3:AC4"/>
+    <mergeCell ref="AE3:AG4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
